--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6852,28 +6852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2564.718197874272</v>
+        <v>2731.264693801545</v>
       </c>
       <c r="AB2" t="n">
-        <v>3509.160585713129</v>
+        <v>3737.036848953676</v>
       </c>
       <c r="AC2" t="n">
-        <v>3174.25122455035</v>
+        <v>3380.379297053555</v>
       </c>
       <c r="AD2" t="n">
-        <v>2564718.197874272</v>
+        <v>2731264.693801546</v>
       </c>
       <c r="AE2" t="n">
-        <v>3509160.585713129</v>
+        <v>3737036.848953676</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.327416097305941e-07</v>
+        <v>1.069681085484511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.02160493827161</v>
       </c>
       <c r="AH2" t="n">
-        <v>3174251.224550351</v>
+        <v>3380379.297053555</v>
       </c>
     </row>
     <row r="3">
@@ -6958,28 +6958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1511.595616909165</v>
+        <v>1636.484086509563</v>
       </c>
       <c r="AB3" t="n">
-        <v>2068.231809947212</v>
+        <v>2239.109723744902</v>
       </c>
       <c r="AC3" t="n">
-        <v>1870.842668787427</v>
+        <v>2025.412234320923</v>
       </c>
       <c r="AD3" t="n">
-        <v>1511595.616909165</v>
+        <v>1636484.086509563</v>
       </c>
       <c r="AE3" t="n">
-        <v>2068231.809947212</v>
+        <v>2239109.723744902</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.966990574817534e-07</v>
+        <v>1.515914247473651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.59645061728395</v>
       </c>
       <c r="AH3" t="n">
-        <v>1870842.668787427</v>
+        <v>2025412.234320923</v>
       </c>
     </row>
     <row r="4">
@@ -7064,28 +7064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1289.206728992624</v>
+        <v>1393.266319692412</v>
       </c>
       <c r="AB4" t="n">
-        <v>1763.9495223945</v>
+        <v>1906.32844517509</v>
       </c>
       <c r="AC4" t="n">
-        <v>1595.600655695872</v>
+        <v>1724.391133916355</v>
       </c>
       <c r="AD4" t="n">
-        <v>1289206.728992624</v>
+        <v>1393266.319692411</v>
       </c>
       <c r="AE4" t="n">
-        <v>1763949.5223945</v>
+        <v>1906328.44517509</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.001473253316127e-06</v>
+        <v>1.693040224029229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.23148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>1595600.655695872</v>
+        <v>1724391.133916355</v>
       </c>
     </row>
     <row r="5">
@@ -7170,28 +7170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1191.656777155914</v>
+        <v>1295.63102700113</v>
       </c>
       <c r="AB5" t="n">
-        <v>1630.477374691371</v>
+        <v>1772.739530349763</v>
       </c>
       <c r="AC5" t="n">
-        <v>1474.866902440193</v>
+        <v>1603.551757628738</v>
       </c>
       <c r="AD5" t="n">
-        <v>1191656.777155914</v>
+        <v>1295631.02700113</v>
       </c>
       <c r="AE5" t="n">
-        <v>1630477.374691371</v>
+        <v>1772739.530349763</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.057090232458283e-06</v>
+        <v>1.787063486772264e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1474866.902440193</v>
+        <v>1603551.757628738</v>
       </c>
     </row>
     <row r="6">
@@ -7276,28 +7276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1130.911323797991</v>
+        <v>1234.970824989228</v>
       </c>
       <c r="AB6" t="n">
-        <v>1547.362765506796</v>
+        <v>1689.741565817838</v>
       </c>
       <c r="AC6" t="n">
-        <v>1399.684634904109</v>
+        <v>1528.475002343366</v>
       </c>
       <c r="AD6" t="n">
-        <v>1130911.323797991</v>
+        <v>1234970.824989228</v>
       </c>
       <c r="AE6" t="n">
-        <v>1547362.765506797</v>
+        <v>1689741.565817838</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.091699854039663e-06</v>
+        <v>1.845572769253531e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.56095679012346</v>
       </c>
       <c r="AH6" t="n">
-        <v>1399684.634904109</v>
+        <v>1528475.002343365</v>
       </c>
     </row>
     <row r="7">
@@ -7382,28 +7382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1094.22259115874</v>
+        <v>1187.867697653947</v>
       </c>
       <c r="AB7" t="n">
-        <v>1497.163622917124</v>
+        <v>1625.29298895439</v>
       </c>
       <c r="AC7" t="n">
-        <v>1354.276428028255</v>
+        <v>1470.177307201619</v>
       </c>
       <c r="AD7" t="n">
-        <v>1094222.59115874</v>
+        <v>1187867.697653947</v>
       </c>
       <c r="AE7" t="n">
-        <v>1497163.622917124</v>
+        <v>1625292.988954389</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.117643940627222e-06</v>
+        <v>1.889432534876816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.12885802469136</v>
       </c>
       <c r="AH7" t="n">
-        <v>1354276.428028255</v>
+        <v>1470177.307201619</v>
       </c>
     </row>
     <row r="8">
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1062.826183571537</v>
+        <v>1166.800343908202</v>
       </c>
       <c r="AB8" t="n">
-        <v>1454.205672944566</v>
+        <v>1596.467706133409</v>
       </c>
       <c r="AC8" t="n">
-        <v>1315.418324509217</v>
+        <v>1444.103068916535</v>
       </c>
       <c r="AD8" t="n">
-        <v>1062826.183571537</v>
+        <v>1166800.343908201</v>
       </c>
       <c r="AE8" t="n">
-        <v>1454205.672944566</v>
+        <v>1596467.706133409</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.132769238070982e-06</v>
+        <v>1.915002600665291e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.8858024691358</v>
       </c>
       <c r="AH8" t="n">
-        <v>1315418.324509216</v>
+        <v>1444103.068916535</v>
       </c>
     </row>
     <row r="9">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1043.05008176577</v>
+        <v>1136.780439606998</v>
       </c>
       <c r="AB9" t="n">
-        <v>1427.14713799388</v>
+        <v>1555.393148683795</v>
       </c>
       <c r="AC9" t="n">
-        <v>1290.942218157331</v>
+        <v>1406.948609581408</v>
       </c>
       <c r="AD9" t="n">
-        <v>1043050.08176577</v>
+        <v>1136780.439606998</v>
       </c>
       <c r="AE9" t="n">
-        <v>1427147.13799388</v>
+        <v>1555393.148683795</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.146844167636702e-06</v>
+        <v>1.938796967440677e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.66589506172839</v>
       </c>
       <c r="AH9" t="n">
-        <v>1290942.218157331</v>
+        <v>1406948.609581408</v>
       </c>
     </row>
     <row r="10">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1027.771508194135</v>
+        <v>1121.501866035362</v>
       </c>
       <c r="AB10" t="n">
-        <v>1406.242319590074</v>
+        <v>1534.488330279989</v>
       </c>
       <c r="AC10" t="n">
-        <v>1272.032526281888</v>
+        <v>1388.038917705964</v>
       </c>
       <c r="AD10" t="n">
-        <v>1027771.508194135</v>
+        <v>1121501.866035362</v>
       </c>
       <c r="AE10" t="n">
-        <v>1406242.319590074</v>
+        <v>1534488.330279989</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.157137772841482e-06</v>
+        <v>1.956198817768944e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.51157407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>1272032.526281888</v>
+        <v>1388038.917705964</v>
       </c>
     </row>
     <row r="11">
@@ -7806,28 +7806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1014.021371931471</v>
+        <v>1107.581137572106</v>
       </c>
       <c r="AB11" t="n">
-        <v>1387.428776542298</v>
+        <v>1515.441375457366</v>
       </c>
       <c r="AC11" t="n">
-        <v>1255.014521377618</v>
+        <v>1370.809777519043</v>
       </c>
       <c r="AD11" t="n">
-        <v>1014021.371931471</v>
+        <v>1107581.137572106</v>
       </c>
       <c r="AE11" t="n">
-        <v>1387428.776542298</v>
+        <v>1515441.375457366</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.166170936592616e-06</v>
+        <v>1.971469829281505e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.37654320987654</v>
       </c>
       <c r="AH11" t="n">
-        <v>1255014.521377618</v>
+        <v>1370809.777519043</v>
       </c>
     </row>
     <row r="12">
@@ -7912,28 +7912,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1004.095415789533</v>
+        <v>1097.655181430168</v>
       </c>
       <c r="AB12" t="n">
-        <v>1373.847645446619</v>
+        <v>1501.860244361686</v>
       </c>
       <c r="AC12" t="n">
-        <v>1242.729554372473</v>
+        <v>1358.524810513898</v>
       </c>
       <c r="AD12" t="n">
-        <v>1004095.415789533</v>
+        <v>1097655.181430168</v>
       </c>
       <c r="AE12" t="n">
-        <v>1373847.645446619</v>
+        <v>1501860.244361687</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.172420625466948e-06</v>
+        <v>1.982035238409382e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.28395061728395</v>
       </c>
       <c r="AH12" t="n">
-        <v>1242729.554372473</v>
+        <v>1358524.810513898</v>
       </c>
     </row>
     <row r="13">
@@ -8018,28 +8018,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>994.2689872092088</v>
+        <v>1087.828752849844</v>
       </c>
       <c r="AB13" t="n">
-        <v>1360.402692351586</v>
+        <v>1488.415291266655</v>
       </c>
       <c r="AC13" t="n">
-        <v>1230.567768730721</v>
+        <v>1346.363024872146</v>
       </c>
       <c r="AD13" t="n">
-        <v>994268.9872092088</v>
+        <v>1087828.752849844</v>
       </c>
       <c r="AE13" t="n">
-        <v>1360402.692351586</v>
+        <v>1488415.291266655</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.17761994646324e-06</v>
+        <v>1.99082494852417e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.20679012345679</v>
       </c>
       <c r="AH13" t="n">
-        <v>1230567.768730721</v>
+        <v>1346363.024872146</v>
       </c>
     </row>
     <row r="14">
@@ -8124,28 +8124,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>984.9373350324267</v>
+        <v>1068.253298177624</v>
       </c>
       <c r="AB14" t="n">
-        <v>1347.634714159874</v>
+        <v>1461.631290576014</v>
       </c>
       <c r="AC14" t="n">
-        <v>1219.018348457656</v>
+        <v>1322.135251615839</v>
       </c>
       <c r="AD14" t="n">
-        <v>984937.3350324268</v>
+        <v>1068253.298177624</v>
       </c>
       <c r="AE14" t="n">
-        <v>1347634.714159874</v>
+        <v>1461631.290576014</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.183554524974159e-06</v>
+        <v>2.00085764794812e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.11805555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>1219018.348457656</v>
+        <v>1322135.251615839</v>
       </c>
     </row>
     <row r="15">
@@ -8230,28 +8230,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>977.2297458865197</v>
+        <v>1060.545709031717</v>
       </c>
       <c r="AB15" t="n">
-        <v>1337.08885065561</v>
+        <v>1451.085427071749</v>
       </c>
       <c r="AC15" t="n">
-        <v>1209.478967365025</v>
+        <v>1312.595870523209</v>
       </c>
       <c r="AD15" t="n">
-        <v>977229.7458865197</v>
+        <v>1060545.709031717</v>
       </c>
       <c r="AE15" t="n">
-        <v>1337088.85065561</v>
+        <v>1451085.427071749</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.186915702183883e-06</v>
+        <v>2.006539884790003e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.07175925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>1209478.967365026</v>
+        <v>1312595.870523209</v>
       </c>
     </row>
     <row r="16">
@@ -8336,28 +8336,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>967.7371852002632</v>
+        <v>1051.053148345461</v>
       </c>
       <c r="AB16" t="n">
-        <v>1324.100710342452</v>
+        <v>1438.097286758592</v>
       </c>
       <c r="AC16" t="n">
-        <v>1197.730396934386</v>
+        <v>1300.84730009257</v>
       </c>
       <c r="AD16" t="n">
-        <v>967737.1852002632</v>
+        <v>1051053.148345461</v>
       </c>
       <c r="AE16" t="n">
-        <v>1324100.710342452</v>
+        <v>1438097.286758592</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.190854581726529e-06</v>
+        <v>2.013198756089085e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>1197730.396934386</v>
+        <v>1300847.30009257</v>
       </c>
     </row>
     <row r="17">
@@ -8442,28 +8442,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>950.1377519060871</v>
+        <v>1043.782768892743</v>
       </c>
       <c r="AB17" t="n">
-        <v>1300.020389277161</v>
+        <v>1428.149632844879</v>
       </c>
       <c r="AC17" t="n">
-        <v>1175.948267914624</v>
+        <v>1291.849036306761</v>
       </c>
       <c r="AD17" t="n">
-        <v>950137.7519060872</v>
+        <v>1043782.768892743</v>
       </c>
       <c r="AE17" t="n">
-        <v>1300020.389277161</v>
+        <v>1428149.632844879</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.194740942875273e-06</v>
+        <v>2.019768842437512e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.95987654320988</v>
       </c>
       <c r="AH17" t="n">
-        <v>1175948.267914624</v>
+        <v>1291849.036306761</v>
       </c>
     </row>
     <row r="18">
@@ -8548,28 +8548,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>944.0121786585017</v>
+        <v>1037.657195645158</v>
       </c>
       <c r="AB18" t="n">
-        <v>1291.639109718596</v>
+        <v>1419.768353286314</v>
       </c>
       <c r="AC18" t="n">
-        <v>1168.366885913929</v>
+        <v>1284.267654306066</v>
       </c>
       <c r="AD18" t="n">
-        <v>944012.1786585017</v>
+        <v>1037657.195645157</v>
       </c>
       <c r="AE18" t="n">
-        <v>1291639.109718596</v>
+        <v>1419768.353286314</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.198102120084997e-06</v>
+        <v>2.025451079279395e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.90972222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>1168366.885913929</v>
+        <v>1284267.654306066</v>
       </c>
     </row>
     <row r="19">
@@ -8654,28 +8654,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>937.994975389017</v>
+        <v>1031.639992375673</v>
       </c>
       <c r="AB19" t="n">
-        <v>1283.406106745014</v>
+        <v>1411.535350312731</v>
       </c>
       <c r="AC19" t="n">
-        <v>1160.919629189053</v>
+        <v>1276.82039758119</v>
       </c>
       <c r="AD19" t="n">
-        <v>937994.975389017</v>
+        <v>1031639.992375673</v>
       </c>
       <c r="AE19" t="n">
-        <v>1283406.106745014</v>
+        <v>1411535.350312731</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.199887745477663e-06</v>
+        <v>2.028469767601646e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.88657407407408</v>
       </c>
       <c r="AH19" t="n">
-        <v>1160919.629189053</v>
+        <v>1276820.39758119</v>
       </c>
     </row>
     <row r="20">
@@ -8760,28 +8760,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>930.6510560028457</v>
+        <v>1024.296072989501</v>
       </c>
       <c r="AB20" t="n">
-        <v>1273.357832249997</v>
+        <v>1401.487075817714</v>
       </c>
       <c r="AC20" t="n">
-        <v>1151.830347908999</v>
+        <v>1267.731116301136</v>
       </c>
       <c r="AD20" t="n">
-        <v>930651.0560028458</v>
+        <v>1024296.072989502</v>
       </c>
       <c r="AE20" t="n">
-        <v>1273357.832249997</v>
+        <v>1401487.075817714</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.201778407658133e-06</v>
+        <v>2.031666025825205e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.85956790123457</v>
       </c>
       <c r="AH20" t="n">
-        <v>1151830.347908999</v>
+        <v>1267731.116301136</v>
       </c>
     </row>
     <row r="21">
@@ -8866,28 +8866,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>922.0578033606704</v>
+        <v>1015.702820347326</v>
       </c>
       <c r="AB21" t="n">
-        <v>1261.600164877422</v>
+        <v>1389.72940844514</v>
       </c>
       <c r="AC21" t="n">
-        <v>1141.194815808473</v>
+        <v>1257.09558420061</v>
       </c>
       <c r="AD21" t="n">
-        <v>922057.8033606703</v>
+        <v>1015702.820347326</v>
       </c>
       <c r="AE21" t="n">
-        <v>1261600.164877422</v>
+        <v>1389729.40844514</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.205664768806877e-06</v>
+        <v>2.038236112173633e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH21" t="n">
-        <v>1141194.815808473</v>
+        <v>1257095.58420061</v>
       </c>
     </row>
     <row r="22">
@@ -8972,28 +8972,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>916.4551236374983</v>
+        <v>1010.100140624154</v>
       </c>
       <c r="AB22" t="n">
-        <v>1253.934331307394</v>
+        <v>1382.063574875111</v>
       </c>
       <c r="AC22" t="n">
-        <v>1134.260598635303</v>
+        <v>1250.16136702744</v>
       </c>
       <c r="AD22" t="n">
-        <v>916455.1236374984</v>
+        <v>1010100.140624154</v>
       </c>
       <c r="AE22" t="n">
-        <v>1253934.331307394</v>
+        <v>1382063.574875111</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.207765504562954e-06</v>
+        <v>2.04178751019981e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.77469135802469</v>
       </c>
       <c r="AH22" t="n">
-        <v>1134260.598635303</v>
+        <v>1250161.36702744</v>
       </c>
     </row>
     <row r="23">
@@ -9078,28 +9078,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>913.4420019066242</v>
+        <v>1007.08701889328</v>
       </c>
       <c r="AB23" t="n">
-        <v>1249.811645225662</v>
+        <v>1377.94088879338</v>
       </c>
       <c r="AC23" t="n">
-        <v>1130.531375926986</v>
+        <v>1246.432144319123</v>
       </c>
       <c r="AD23" t="n">
-        <v>913442.0019066242</v>
+        <v>1007087.01889328</v>
       </c>
       <c r="AE23" t="n">
-        <v>1249811.645225662</v>
+        <v>1377940.88879338</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.206925210260523e-06</v>
+        <v>2.040366950989339e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.78626543209877</v>
       </c>
       <c r="AH23" t="n">
-        <v>1130531.375926986</v>
+        <v>1246432.144319123</v>
       </c>
     </row>
     <row r="24">
@@ -9184,28 +9184,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>907.1455405642208</v>
+        <v>1000.790557550877</v>
       </c>
       <c r="AB24" t="n">
-        <v>1241.196549036716</v>
+        <v>1369.325792604434</v>
       </c>
       <c r="AC24" t="n">
-        <v>1122.738492426949</v>
+        <v>1238.639260819087</v>
       </c>
       <c r="AD24" t="n">
-        <v>907145.5405642209</v>
+        <v>1000790.557550877</v>
       </c>
       <c r="AE24" t="n">
-        <v>1241196.549036716</v>
+        <v>1369325.792604434</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.209236019592209e-06</v>
+        <v>2.044273488818134e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.7554012345679</v>
       </c>
       <c r="AH24" t="n">
-        <v>1122738.492426949</v>
+        <v>1238639.260819087</v>
       </c>
     </row>
     <row r="25">
@@ -9290,28 +9290,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>901.8462161354832</v>
+        <v>995.491233122139</v>
       </c>
       <c r="AB25" t="n">
-        <v>1233.945779563624</v>
+        <v>1362.075023131341</v>
       </c>
       <c r="AC25" t="n">
-        <v>1116.17972621585</v>
+        <v>1232.080494607987</v>
       </c>
       <c r="AD25" t="n">
-        <v>901846.2161354832</v>
+        <v>995491.233122139</v>
       </c>
       <c r="AE25" t="n">
-        <v>1233945.779563624</v>
+        <v>1362075.023131341</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.210969126590973e-06</v>
+        <v>2.04720339218973e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.73225308641975</v>
       </c>
       <c r="AH25" t="n">
-        <v>1116179.72621585</v>
+        <v>1232080.494607987</v>
       </c>
     </row>
     <row r="26">
@@ -9396,28 +9396,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>895.5727514296649</v>
+        <v>989.2177684163207</v>
       </c>
       <c r="AB26" t="n">
-        <v>1225.362148387394</v>
+        <v>1353.491391955111</v>
       </c>
       <c r="AC26" t="n">
-        <v>1108.415304751877</v>
+        <v>1224.316073144014</v>
       </c>
       <c r="AD26" t="n">
-        <v>895572.7514296649</v>
+        <v>989217.7684163207</v>
       </c>
       <c r="AE26" t="n">
-        <v>1225362.148387394</v>
+        <v>1353491.391955111</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.213384972710462e-06</v>
+        <v>2.051287499919833e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.69753086419753</v>
       </c>
       <c r="AH26" t="n">
-        <v>1108415.304751877</v>
+        <v>1224316.073144014</v>
       </c>
     </row>
     <row r="27">
@@ -9502,28 +9502,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>892.1232656811882</v>
+        <v>985.7682826678441</v>
       </c>
       <c r="AB27" t="n">
-        <v>1220.642409805757</v>
+        <v>1348.771653373474</v>
       </c>
       <c r="AC27" t="n">
-        <v>1104.146011396277</v>
+        <v>1220.046779788414</v>
       </c>
       <c r="AD27" t="n">
-        <v>892123.2656811882</v>
+        <v>985768.2826678441</v>
       </c>
       <c r="AE27" t="n">
-        <v>1220642.409805757</v>
+        <v>1348771.653373474</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.212912307165345e-06</v>
+        <v>2.050488435363943e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.70524691358025</v>
       </c>
       <c r="AH27" t="n">
-        <v>1104146.011396277</v>
+        <v>1220046.779788414</v>
       </c>
     </row>
     <row r="28">
@@ -9608,28 +9608,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>889.8000180278671</v>
+        <v>983.445035014523</v>
       </c>
       <c r="AB28" t="n">
-        <v>1217.46363987203</v>
+        <v>1345.592883439748</v>
       </c>
       <c r="AC28" t="n">
-        <v>1101.270618803594</v>
+        <v>1217.171387195731</v>
       </c>
       <c r="AD28" t="n">
-        <v>889800.0180278671</v>
+        <v>983445.035014523</v>
       </c>
       <c r="AE28" t="n">
-        <v>1217463.63987203</v>
+        <v>1345592.883439748</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.214645414164109e-06</v>
+        <v>2.053418338735539e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>16.6820987654321</v>
       </c>
       <c r="AH28" t="n">
-        <v>1101270.618803594</v>
+        <v>1217171.387195731</v>
       </c>
     </row>
     <row r="29">
@@ -9714,28 +9714,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>892.9070922462736</v>
+        <v>986.5521092329295</v>
       </c>
       <c r="AB29" t="n">
-        <v>1221.714875892095</v>
+        <v>1349.844119459812</v>
       </c>
       <c r="AC29" t="n">
-        <v>1105.11612282455</v>
+        <v>1221.016891216687</v>
       </c>
       <c r="AD29" t="n">
-        <v>892907.0922462735</v>
+        <v>986552.1092329295</v>
       </c>
       <c r="AE29" t="n">
-        <v>1221714.875892095</v>
+        <v>1349844.119459812</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.214750450951913e-06</v>
+        <v>2.053595908636848e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH29" t="n">
-        <v>1105116.12282455</v>
+        <v>1221016.891216687</v>
       </c>
     </row>
   </sheetData>
@@ -10011,28 +10011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1927.799016157956</v>
+        <v>2068.981714625977</v>
       </c>
       <c r="AB2" t="n">
-        <v>2637.699662397486</v>
+        <v>2830.872058982501</v>
       </c>
       <c r="AC2" t="n">
-        <v>2385.961308652997</v>
+        <v>2560.6976028271</v>
       </c>
       <c r="AD2" t="n">
-        <v>1927799.016157956</v>
+        <v>2068981.714625977</v>
       </c>
       <c r="AE2" t="n">
-        <v>2637699.662397486</v>
+        <v>2830872.058982501</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.480634874239976e-07</v>
+        <v>1.295489620547322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2385961.308652997</v>
+        <v>2560697.6028271</v>
       </c>
     </row>
     <row r="3">
@@ -10117,28 +10117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1252.606447142735</v>
+        <v>1353.512215089887</v>
       </c>
       <c r="AB3" t="n">
-        <v>1713.871402077006</v>
+        <v>1851.9351254306</v>
       </c>
       <c r="AC3" t="n">
-        <v>1550.301920896396</v>
+        <v>1675.189036266776</v>
       </c>
       <c r="AD3" t="n">
-        <v>1252606.447142735</v>
+        <v>1353512.215089887</v>
       </c>
       <c r="AE3" t="n">
-        <v>1713871.402077006</v>
+        <v>1851935.1254306</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.934700363886427e-07</v>
+        <v>1.720482475221754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.09953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1550301.920896396</v>
+        <v>1675189.036266776</v>
       </c>
     </row>
     <row r="4">
@@ -10223,28 +10223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1091.536700659063</v>
+        <v>1192.271786897072</v>
       </c>
       <c r="AB4" t="n">
-        <v>1493.48866904234</v>
+        <v>1631.318858151539</v>
       </c>
       <c r="AC4" t="n">
-        <v>1350.95220659345</v>
+        <v>1475.628075899952</v>
       </c>
       <c r="AD4" t="n">
-        <v>1091536.700659063</v>
+        <v>1192271.786897072</v>
       </c>
       <c r="AE4" t="n">
-        <v>1493488.66904234</v>
+        <v>1631318.858151539</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.087242828842257e-06</v>
+        <v>1.882877353939502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.27854938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>1350952.20659345</v>
+        <v>1475628.075899952</v>
       </c>
     </row>
     <row r="5">
@@ -10329,28 +10329,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1019.229723497082</v>
+        <v>1109.959582745803</v>
       </c>
       <c r="AB5" t="n">
-        <v>1394.555072930622</v>
+        <v>1518.695669073614</v>
       </c>
       <c r="AC5" t="n">
-        <v>1261.460694040461</v>
+        <v>1373.753485919986</v>
       </c>
       <c r="AD5" t="n">
-        <v>1019229.723497082</v>
+        <v>1109959.582745803</v>
       </c>
       <c r="AE5" t="n">
-        <v>1394555.072930622</v>
+        <v>1518695.669073614</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.135161486399666e-06</v>
+        <v>1.965862454188085e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.46450617283951</v>
       </c>
       <c r="AH5" t="n">
-        <v>1261460.694040461</v>
+        <v>1373753.485919986</v>
       </c>
     </row>
     <row r="6">
@@ -10435,28 +10435,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>970.9924871941652</v>
+        <v>1071.727483923623</v>
       </c>
       <c r="AB6" t="n">
-        <v>1328.554758144297</v>
+        <v>1466.384824783947</v>
       </c>
       <c r="AC6" t="n">
-        <v>1201.759356665319</v>
+        <v>1326.435115190594</v>
       </c>
       <c r="AD6" t="n">
-        <v>970992.4871941651</v>
+        <v>1071727.483923623</v>
       </c>
       <c r="AE6" t="n">
-        <v>1328554.758144297</v>
+        <v>1466384.824783947</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.165151394530834e-06</v>
+        <v>2.017798707404885e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.98996913580247</v>
       </c>
       <c r="AH6" t="n">
-        <v>1201759.356665319</v>
+        <v>1326435.115190594</v>
       </c>
     </row>
     <row r="7">
@@ -10541,28 +10541,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>944.2236146909463</v>
+        <v>1035.038725285687</v>
       </c>
       <c r="AB7" t="n">
-        <v>1291.928405826086</v>
+        <v>1416.185646621727</v>
       </c>
       <c r="AC7" t="n">
-        <v>1168.62857200695</v>
+        <v>1281.026876137187</v>
       </c>
       <c r="AD7" t="n">
-        <v>944223.6146909463</v>
+        <v>1035038.725285687</v>
       </c>
       <c r="AE7" t="n">
-        <v>1291928.405826086</v>
+        <v>1416185.646621727</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.186013939317733e-06</v>
+        <v>2.053928274860051e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.67361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1168628.572006949</v>
+        <v>1281026.876137187</v>
       </c>
     </row>
     <row r="8">
@@ -10647,28 +10647,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>922.9848387764632</v>
+        <v>1013.629357170612</v>
       </c>
       <c r="AB8" t="n">
-        <v>1262.868575631226</v>
+        <v>1386.89240465202</v>
       </c>
       <c r="AC8" t="n">
-        <v>1142.342171220159</v>
+        <v>1254.529340067746</v>
       </c>
       <c r="AD8" t="n">
-        <v>922984.8387764632</v>
+        <v>1013629.357170612</v>
       </c>
       <c r="AE8" t="n">
-        <v>1262868.575631226</v>
+        <v>1386892.40465202</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.202041154713919e-06</v>
+        <v>2.08168406235816e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.43827160493827</v>
       </c>
       <c r="AH8" t="n">
-        <v>1142342.171220159</v>
+        <v>1254529.340067746</v>
       </c>
     </row>
     <row r="9">
@@ -10753,28 +10753,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>907.0080138680112</v>
+        <v>997.6525322621602</v>
       </c>
       <c r="AB9" t="n">
-        <v>1241.008378943713</v>
+        <v>1365.032207964507</v>
       </c>
       <c r="AC9" t="n">
-        <v>1122.568281023523</v>
+        <v>1234.75544987111</v>
       </c>
       <c r="AD9" t="n">
-        <v>907008.0138680112</v>
+        <v>997652.5322621602</v>
       </c>
       <c r="AE9" t="n">
-        <v>1241008.378943713</v>
+        <v>1365032.207964507</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.213450358894254e-06</v>
+        <v>2.101442419560203e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.27237654320988</v>
       </c>
       <c r="AH9" t="n">
-        <v>1122568.281023524</v>
+        <v>1234755.44987111</v>
       </c>
     </row>
     <row r="10">
@@ -10859,28 +10859,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>894.1657519458067</v>
+        <v>974.8903842052389</v>
       </c>
       <c r="AB10" t="n">
-        <v>1223.437029621143</v>
+        <v>1333.888032797928</v>
       </c>
       <c r="AC10" t="n">
-        <v>1106.673916618756</v>
+        <v>1206.583631071305</v>
       </c>
       <c r="AD10" t="n">
-        <v>894165.7519458068</v>
+        <v>974890.3842052389</v>
       </c>
       <c r="AE10" t="n">
-        <v>1223437.029621143</v>
+        <v>1333888.032797928</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.22208875634508e-06</v>
+        <v>2.116402318584607e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.15277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1106673.916618756</v>
+        <v>1206583.631071305</v>
       </c>
     </row>
     <row r="11">
@@ -10965,28 +10965,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>883.6085888659796</v>
+        <v>964.3332211254116</v>
       </c>
       <c r="AB11" t="n">
-        <v>1208.992253346159</v>
+        <v>1319.443256522944</v>
       </c>
       <c r="AC11" t="n">
-        <v>1093.607729518086</v>
+        <v>1193.517443970635</v>
       </c>
       <c r="AD11" t="n">
-        <v>883608.5888659797</v>
+        <v>964333.2211254116</v>
       </c>
       <c r="AE11" t="n">
-        <v>1208992.253346159</v>
+        <v>1319443.256522944</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.227576040260384e-06</v>
+        <v>2.125905147524638e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.07561728395062</v>
       </c>
       <c r="AH11" t="n">
-        <v>1093607.729518085</v>
+        <v>1193517.443970635</v>
       </c>
     </row>
     <row r="12">
@@ -11071,28 +11071,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>861.0809063297556</v>
+        <v>951.8106760699253</v>
       </c>
       <c r="AB12" t="n">
-        <v>1178.168884248887</v>
+        <v>1302.30935792233</v>
       </c>
       <c r="AC12" t="n">
-        <v>1065.726099506586</v>
+        <v>1178.018780604885</v>
       </c>
       <c r="AD12" t="n">
-        <v>861080.9063297557</v>
+        <v>951810.6760699253</v>
       </c>
       <c r="AE12" t="n">
-        <v>1178168.884248886</v>
+        <v>1302309.35792233</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.235182176380607e-06</v>
+        <v>2.139077385659333e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.97145061728395</v>
       </c>
       <c r="AH12" t="n">
-        <v>1065726.099506587</v>
+        <v>1178018.780604885</v>
       </c>
     </row>
     <row r="13">
@@ -11177,28 +11177,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>852.4105023068508</v>
+        <v>943.1402720470203</v>
       </c>
       <c r="AB13" t="n">
-        <v>1166.305654953519</v>
+        <v>1290.446128626962</v>
       </c>
       <c r="AC13" t="n">
-        <v>1054.995080165022</v>
+        <v>1167.287761263321</v>
       </c>
       <c r="AD13" t="n">
-        <v>852410.5023068509</v>
+        <v>943140.2720470203</v>
       </c>
       <c r="AE13" t="n">
-        <v>1166305.654953519</v>
+        <v>1290446.128626962</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.238441949003561e-06</v>
+        <v>2.144722630574203e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.92515432098766</v>
       </c>
       <c r="AH13" t="n">
-        <v>1054995.080165022</v>
+        <v>1167287.761263321</v>
       </c>
     </row>
     <row r="14">
@@ -11283,28 +11283,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>842.1316855970202</v>
+        <v>932.8614553371898</v>
       </c>
       <c r="AB14" t="n">
-        <v>1152.241724461739</v>
+        <v>1276.382198135183</v>
       </c>
       <c r="AC14" t="n">
-        <v>1042.273391460527</v>
+        <v>1154.566072558827</v>
       </c>
       <c r="AD14" t="n">
-        <v>842131.6855970202</v>
+        <v>932861.4553371898</v>
       </c>
       <c r="AE14" t="n">
-        <v>1152241.724461739</v>
+        <v>1276382.198135183</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.244092221550012e-06</v>
+        <v>2.154507721759977e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.84799382716049</v>
       </c>
       <c r="AH14" t="n">
-        <v>1042273.391460527</v>
+        <v>1154566.072558827</v>
       </c>
     </row>
     <row r="15">
@@ -11389,28 +11389,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>833.2250935986884</v>
+        <v>923.9548633388581</v>
       </c>
       <c r="AB15" t="n">
-        <v>1140.055332358515</v>
+        <v>1264.195806031958</v>
       </c>
       <c r="AC15" t="n">
-        <v>1031.250051515926</v>
+        <v>1143.542732614225</v>
       </c>
       <c r="AD15" t="n">
-        <v>833225.0935986885</v>
+        <v>923954.8633388581</v>
       </c>
       <c r="AE15" t="n">
-        <v>1140055.332358515</v>
+        <v>1264195.806031958</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.247351994172965e-06</v>
+        <v>2.160152966674847e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>1031250.051515926</v>
+        <v>1143542.732614225</v>
       </c>
     </row>
     <row r="16">
@@ -11495,28 +11495,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>824.193590207384</v>
+        <v>914.9233599475536</v>
       </c>
       <c r="AB16" t="n">
-        <v>1127.698030976723</v>
+        <v>1251.838504650166</v>
       </c>
       <c r="AC16" t="n">
-        <v>1020.072113634431</v>
+        <v>1132.36479473273</v>
       </c>
       <c r="AD16" t="n">
-        <v>824193.590207384</v>
+        <v>914923.3599475536</v>
       </c>
       <c r="AE16" t="n">
-        <v>1127698.030976723</v>
+        <v>1251838.504650166</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.251100732689361e-06</v>
+        <v>2.166644998326947e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.75154320987654</v>
       </c>
       <c r="AH16" t="n">
-        <v>1020072.113634431</v>
+        <v>1132364.79473273</v>
       </c>
     </row>
     <row r="17">
@@ -11601,28 +11601,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>814.4712599556262</v>
+        <v>905.2010296957958</v>
       </c>
       <c r="AB17" t="n">
-        <v>1114.395509807329</v>
+        <v>1238.535983480773</v>
       </c>
       <c r="AC17" t="n">
-        <v>1008.039166415238</v>
+        <v>1120.331847513537</v>
       </c>
       <c r="AD17" t="n">
-        <v>814471.2599556262</v>
+        <v>905201.0296957958</v>
       </c>
       <c r="AE17" t="n">
-        <v>1114395.509807329</v>
+        <v>1238535.983480772</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.252947937175701e-06</v>
+        <v>2.169843970445373e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.7283950617284</v>
       </c>
       <c r="AH17" t="n">
-        <v>1008039.166415238</v>
+        <v>1120331.847513537</v>
       </c>
     </row>
     <row r="18">
@@ -11707,28 +11707,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>807.5554558373587</v>
+        <v>898.2852255775281</v>
       </c>
       <c r="AB18" t="n">
-        <v>1104.933001508971</v>
+        <v>1229.073475182414</v>
       </c>
       <c r="AC18" t="n">
-        <v>999.479746628161</v>
+        <v>1111.77242772646</v>
       </c>
       <c r="AD18" t="n">
-        <v>807555.4558373587</v>
+        <v>898285.2255775281</v>
       </c>
       <c r="AE18" t="n">
-        <v>1104933.001508971</v>
+        <v>1229073.475182414</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.255827402992643e-06</v>
+        <v>2.174830603453508e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.68981481481482</v>
       </c>
       <c r="AH18" t="n">
-        <v>999479.7466281611</v>
+        <v>1111772.42772646</v>
       </c>
     </row>
     <row r="19">
@@ -11813,28 +11813,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>801.5411865411133</v>
+        <v>892.2709562812829</v>
       </c>
       <c r="AB19" t="n">
-        <v>1096.704012927012</v>
+        <v>1220.844486600456</v>
       </c>
       <c r="AC19" t="n">
-        <v>992.0361211670071</v>
+        <v>1104.328802265306</v>
       </c>
       <c r="AD19" t="n">
-        <v>801541.1865411133</v>
+        <v>892270.9562812829</v>
       </c>
       <c r="AE19" t="n">
-        <v>1096704.012927012</v>
+        <v>1220844.486600456</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.257891925653847e-06</v>
+        <v>2.178405925232925e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.66280864197531</v>
       </c>
       <c r="AH19" t="n">
-        <v>992036.1211670071</v>
+        <v>1104328.802265306</v>
       </c>
     </row>
     <row r="20">
@@ -11919,28 +11919,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>801.5437205055649</v>
+        <v>892.2734902457346</v>
       </c>
       <c r="AB20" t="n">
-        <v>1096.707480008966</v>
+        <v>1220.847953682409</v>
       </c>
       <c r="AC20" t="n">
-        <v>992.0392573555251</v>
+        <v>1104.331938453824</v>
       </c>
       <c r="AD20" t="n">
-        <v>801543.7205055649</v>
+        <v>892273.4902457346</v>
       </c>
       <c r="AE20" t="n">
-        <v>1096707.480008966</v>
+        <v>1220847.953682409</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.257239971129256e-06</v>
+        <v>2.177276876249951e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.67052469135803</v>
       </c>
       <c r="AH20" t="n">
-        <v>992039.2573555252</v>
+        <v>1104331.938453824</v>
       </c>
     </row>
     <row r="21">
@@ -12025,28 +12025,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>804.6019700044641</v>
+        <v>895.3317397446334</v>
       </c>
       <c r="AB21" t="n">
-        <v>1100.891911893805</v>
+        <v>1225.032385567249</v>
       </c>
       <c r="AC21" t="n">
-        <v>995.8243329341622</v>
+        <v>1108.117014032461</v>
       </c>
       <c r="AD21" t="n">
-        <v>804601.970004464</v>
+        <v>895331.7397446334</v>
       </c>
       <c r="AE21" t="n">
-        <v>1100891.911893805</v>
+        <v>1225032.385567249</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.25718564158554e-06</v>
+        <v>2.177182788834703e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.67438271604938</v>
       </c>
       <c r="AH21" t="n">
-        <v>995824.3329341621</v>
+        <v>1108117.014032461</v>
       </c>
     </row>
   </sheetData>
@@ -12322,28 +12322,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>891.6616482346348</v>
+        <v>991.8453291199322</v>
       </c>
       <c r="AB2" t="n">
-        <v>1220.010804450258</v>
+        <v>1357.08653642959</v>
       </c>
       <c r="AC2" t="n">
-        <v>1103.574685569443</v>
+        <v>1227.568102075665</v>
       </c>
       <c r="AD2" t="n">
-        <v>891661.6482346348</v>
+        <v>991845.3291199323</v>
       </c>
       <c r="AE2" t="n">
-        <v>1220010.804450258</v>
+        <v>1357086.53642959</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.117722036509542e-06</v>
+        <v>2.114970615367619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.92592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1103574.685569443</v>
+        <v>1227568.102075665</v>
       </c>
     </row>
     <row r="3">
@@ -12428,28 +12428,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>713.2681216027738</v>
+        <v>795.2211607711914</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.9249111455997</v>
+        <v>1088.056674848747</v>
       </c>
       <c r="AC3" t="n">
-        <v>882.7840073450784</v>
+        <v>984.214072898316</v>
       </c>
       <c r="AD3" t="n">
-        <v>713268.1216027738</v>
+        <v>795221.1607711915</v>
       </c>
       <c r="AE3" t="n">
-        <v>975924.9111455997</v>
+        <v>1088056.674848747</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.285468246577444e-06</v>
+        <v>2.432382542075989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.19444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>882784.0073450784</v>
+        <v>984214.072898316</v>
       </c>
     </row>
     <row r="4">
@@ -12534,28 +12534,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>652.2404812886069</v>
+        <v>734.108179602453</v>
       </c>
       <c r="AB4" t="n">
-        <v>892.4242013182823</v>
+        <v>1004.439197899232</v>
       </c>
       <c r="AC4" t="n">
-        <v>807.2524880696978</v>
+        <v>908.5769305909965</v>
       </c>
       <c r="AD4" t="n">
-        <v>652240.4812886069</v>
+        <v>734108.179602453</v>
       </c>
       <c r="AE4" t="n">
-        <v>892424.2013182823</v>
+        <v>1004439.197899232</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.343909643941179e-06</v>
+        <v>2.542966241876086e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.40354938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>807252.4880696979</v>
+        <v>908576.9305909965</v>
       </c>
     </row>
     <row r="5">
@@ -12640,28 +12640,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>620.4690838223061</v>
+        <v>693.3920982325801</v>
       </c>
       <c r="AB5" t="n">
-        <v>848.9531736497573</v>
+        <v>948.7296591022357</v>
       </c>
       <c r="AC5" t="n">
-        <v>767.9302742698862</v>
+        <v>858.1842319879571</v>
       </c>
       <c r="AD5" t="n">
-        <v>620469.083822306</v>
+        <v>693392.0982325801</v>
       </c>
       <c r="AE5" t="n">
-        <v>848953.1736497573</v>
+        <v>948729.6591022357</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.3751309298772e-06</v>
+        <v>2.602043633366801e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.01003086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>767930.2742698862</v>
+        <v>858184.2319879571</v>
       </c>
     </row>
     <row r="6">
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>587.8942426655984</v>
+        <v>669.847192325465</v>
       </c>
       <c r="AB6" t="n">
-        <v>804.3828388785834</v>
+        <v>916.5144801121822</v>
       </c>
       <c r="AC6" t="n">
-        <v>727.6136696944156</v>
+        <v>829.0436244664266</v>
       </c>
       <c r="AD6" t="n">
-        <v>587894.2426655984</v>
+        <v>669847.192325465</v>
       </c>
       <c r="AE6" t="n">
-        <v>804382.8388785834</v>
+        <v>916514.4801121822</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.392348105034151e-06</v>
+        <v>2.634622233722847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.79783950617284</v>
       </c>
       <c r="AH6" t="n">
-        <v>727613.6696944156</v>
+        <v>829043.6244664267</v>
       </c>
     </row>
     <row r="7">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>585.4392982333829</v>
+        <v>667.3922478932498</v>
       </c>
       <c r="AB7" t="n">
-        <v>801.0238756019216</v>
+        <v>913.1555168355205</v>
       </c>
       <c r="AC7" t="n">
-        <v>724.5752811585439</v>
+        <v>826.0052359305548</v>
       </c>
       <c r="AD7" t="n">
-        <v>585439.298233383</v>
+        <v>667392.2478932497</v>
       </c>
       <c r="AE7" t="n">
-        <v>801023.8756019217</v>
+        <v>913155.5168355205</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.395803664836779e-06</v>
+        <v>2.641160896470362e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.7554012345679</v>
       </c>
       <c r="AH7" t="n">
-        <v>724575.2811585439</v>
+        <v>826005.2359305548</v>
       </c>
     </row>
   </sheetData>
@@ -13149,28 +13149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1199.182412777572</v>
+        <v>1303.64544085482</v>
       </c>
       <c r="AB2" t="n">
-        <v>1640.774281356536</v>
+        <v>1783.705204955368</v>
       </c>
       <c r="AC2" t="n">
-        <v>1484.181086785034</v>
+        <v>1613.470883640405</v>
       </c>
       <c r="AD2" t="n">
-        <v>1199182.412777572</v>
+        <v>1303645.44085482</v>
       </c>
       <c r="AE2" t="n">
-        <v>1640774.281356536</v>
+        <v>1783705.204955368</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.708104350807459e-07</v>
+        <v>1.768605777174387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.04783950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>1484181.086785035</v>
+        <v>1613470.883640405</v>
       </c>
     </row>
     <row r="3">
@@ -13255,28 +13255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>892.3700459209408</v>
+        <v>977.839812440244</v>
       </c>
       <c r="AB3" t="n">
-        <v>1220.980065416962</v>
+        <v>1337.923570628652</v>
       </c>
       <c r="AC3" t="n">
-        <v>1104.451441629851</v>
+        <v>1210.234022835378</v>
       </c>
       <c r="AD3" t="n">
-        <v>892370.0459209408</v>
+        <v>977839.812440244</v>
       </c>
       <c r="AE3" t="n">
-        <v>1220980.065416962</v>
+        <v>1337923.570628652</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.17142177954244e-06</v>
+        <v>2.13407607905898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.10108024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>1104451.441629851</v>
+        <v>1210234.022835378</v>
       </c>
     </row>
     <row r="4">
@@ -13361,28 +13361,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>810.560991275707</v>
+        <v>895.9454169404387</v>
       </c>
       <c r="AB4" t="n">
-        <v>1109.045307690585</v>
+        <v>1225.872045780076</v>
       </c>
       <c r="AC4" t="n">
-        <v>1003.19958007946</v>
+        <v>1108.876538253048</v>
       </c>
       <c r="AD4" t="n">
-        <v>810560.991275707</v>
+        <v>895945.4169404387</v>
       </c>
       <c r="AE4" t="n">
-        <v>1109045.307690585</v>
+        <v>1225872.045780076</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.241598052106375e-06</v>
+        <v>2.261922007153909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1003199.58007946</v>
+        <v>1108876.538253048</v>
       </c>
     </row>
     <row r="5">
@@ -13467,28 +13467,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>761.8444256333322</v>
+        <v>847.1435104434923</v>
       </c>
       <c r="AB5" t="n">
-        <v>1042.389153355496</v>
+        <v>1159.09912432279</v>
       </c>
       <c r="AC5" t="n">
-        <v>942.9049955616117</v>
+        <v>1048.47633070326</v>
       </c>
       <c r="AD5" t="n">
-        <v>761844.4256333322</v>
+        <v>847143.5104434923</v>
       </c>
       <c r="AE5" t="n">
-        <v>1042389.153355496</v>
+        <v>1159099.12432279</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279180055925738e-06</v>
+        <v>2.330388256249374e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.49228395061728</v>
       </c>
       <c r="AH5" t="n">
-        <v>942904.9955616117</v>
+        <v>1048476.33070326</v>
       </c>
     </row>
     <row r="6">
@@ -13573,28 +13573,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>736.5119653205194</v>
+        <v>821.8110501306793</v>
       </c>
       <c r="AB6" t="n">
-        <v>1007.728163566232</v>
+        <v>1124.438134533526</v>
       </c>
       <c r="AC6" t="n">
-        <v>911.5520019908303</v>
+        <v>1017.123337132479</v>
       </c>
       <c r="AD6" t="n">
-        <v>736511.9653205194</v>
+        <v>821811.0501306793</v>
       </c>
       <c r="AE6" t="n">
-        <v>1007728.163566231</v>
+        <v>1124438.134533526</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.301624863762303e-06</v>
+        <v>2.371277821681389e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.19135802469136</v>
       </c>
       <c r="AH6" t="n">
-        <v>911552.0019908303</v>
+        <v>1017123.337132479</v>
       </c>
     </row>
     <row r="7">
@@ -13679,28 +13679,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>707.479564323822</v>
+        <v>792.8639004800024</v>
       </c>
       <c r="AB7" t="n">
-        <v>968.0047517034139</v>
+        <v>1084.831367323357</v>
       </c>
       <c r="AC7" t="n">
-        <v>875.6197368040412</v>
+        <v>981.296584196402</v>
       </c>
       <c r="AD7" t="n">
-        <v>707479.564323822</v>
+        <v>792863.9004800024</v>
       </c>
       <c r="AE7" t="n">
-        <v>968004.7517034139</v>
+        <v>1084831.367323357</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.316240087469833e-06</v>
+        <v>2.397903585218515e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.99845679012346</v>
       </c>
       <c r="AH7" t="n">
-        <v>875619.7368040412</v>
+        <v>981296.584196402</v>
       </c>
     </row>
     <row r="8">
@@ -13785,28 +13785,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>687.8752906964572</v>
+        <v>773.2596268526379</v>
       </c>
       <c r="AB8" t="n">
-        <v>941.1813196469413</v>
+        <v>1058.007935266885</v>
       </c>
       <c r="AC8" t="n">
-        <v>851.356295456115</v>
+        <v>957.033142848476</v>
       </c>
       <c r="AD8" t="n">
-        <v>687875.2906964573</v>
+        <v>773259.6268526379</v>
       </c>
       <c r="AE8" t="n">
-        <v>941181.3196469414</v>
+        <v>1058007.935266885</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.329405388190505e-06</v>
+        <v>2.42188790396029e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.83256172839506</v>
       </c>
       <c r="AH8" t="n">
-        <v>851356.295456115</v>
+        <v>957033.1428484761</v>
       </c>
     </row>
     <row r="9">
@@ -13891,28 +13891,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>673.9924977477427</v>
+        <v>759.3768339039232</v>
       </c>
       <c r="AB9" t="n">
-        <v>922.1862698689108</v>
+        <v>1039.012885488854</v>
       </c>
       <c r="AC9" t="n">
-        <v>834.1741065691799</v>
+        <v>939.850953961541</v>
       </c>
       <c r="AD9" t="n">
-        <v>673992.4977477427</v>
+        <v>759376.8339039232</v>
       </c>
       <c r="AE9" t="n">
-        <v>922186.2698689108</v>
+        <v>1039012.885488854</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.336770996963744e-06</v>
+        <v>2.435306443520667e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.73996913580247</v>
       </c>
       <c r="AH9" t="n">
-        <v>834174.1065691799</v>
+        <v>939850.9539615409</v>
       </c>
     </row>
     <row r="10">
@@ -13997,28 +13997,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>662.5457107596269</v>
+        <v>747.9300469158076</v>
       </c>
       <c r="AB10" t="n">
-        <v>906.5242709151698</v>
+        <v>1023.350886535113</v>
       </c>
       <c r="AC10" t="n">
-        <v>820.0068668138304</v>
+        <v>925.6837142061914</v>
       </c>
       <c r="AD10" t="n">
-        <v>662545.7107596269</v>
+        <v>747930.0469158075</v>
       </c>
       <c r="AE10" t="n">
-        <v>906524.2709151699</v>
+        <v>1023350.886535113</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.340830781326947e-06</v>
+        <v>2.442702488947647e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.68595679012346</v>
       </c>
       <c r="AH10" t="n">
-        <v>820006.8668138303</v>
+        <v>925683.7142061915</v>
       </c>
     </row>
     <row r="11">
@@ -14103,28 +14103,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>664.5965440943085</v>
+        <v>749.980880250489</v>
       </c>
       <c r="AB11" t="n">
-        <v>909.3303115600623</v>
+        <v>1026.156927180006</v>
       </c>
       <c r="AC11" t="n">
-        <v>822.5451028778771</v>
+        <v>928.2219502702382</v>
       </c>
       <c r="AD11" t="n">
-        <v>664596.5440943085</v>
+        <v>749980.880250489</v>
       </c>
       <c r="AE11" t="n">
-        <v>909330.3115600623</v>
+        <v>1026156.927180006</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.342222707394331e-06</v>
+        <v>2.445238275951182e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.67052469135803</v>
       </c>
       <c r="AH11" t="n">
-        <v>822545.1028778771</v>
+        <v>928221.9502702381</v>
       </c>
     </row>
   </sheetData>
@@ -14400,28 +14400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>702.7843923218244</v>
+        <v>790.8108919924975</v>
       </c>
       <c r="AB2" t="n">
-        <v>961.5806102339109</v>
+        <v>1082.022350538411</v>
       </c>
       <c r="AC2" t="n">
-        <v>869.8087063800484</v>
+        <v>978.7556560309312</v>
       </c>
       <c r="AD2" t="n">
-        <v>702784.3923218243</v>
+        <v>790810.8919924975</v>
       </c>
       <c r="AE2" t="n">
-        <v>961580.6102339108</v>
+        <v>1082022.350538411</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.240307658137113e-06</v>
+        <v>2.430603382241235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>869808.7063800484</v>
+        <v>978755.6560309312</v>
       </c>
     </row>
     <row r="3">
@@ -14506,28 +14506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>577.4420721066997</v>
+        <v>656.6659218103056</v>
       </c>
       <c r="AB3" t="n">
-        <v>790.0817180026772</v>
+        <v>898.4792842767271</v>
       </c>
       <c r="AC3" t="n">
-        <v>714.6774277231566</v>
+        <v>812.729682408951</v>
       </c>
       <c r="AD3" t="n">
-        <v>577442.0721066997</v>
+        <v>656665.9218103056</v>
       </c>
       <c r="AE3" t="n">
-        <v>790081.7180026772</v>
+        <v>898479.2842767271</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.382541020223094e-06</v>
+        <v>2.709334944273976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.56944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>714677.4277231566</v>
+        <v>812729.682408951</v>
       </c>
     </row>
     <row r="4">
@@ -14612,28 +14612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>526.3252061225858</v>
+        <v>605.4637149716201</v>
       </c>
       <c r="AB4" t="n">
-        <v>720.1413668462436</v>
+        <v>828.4221659980959</v>
       </c>
       <c r="AC4" t="n">
-        <v>651.4120855191936</v>
+        <v>749.3587171730494</v>
       </c>
       <c r="AD4" t="n">
-        <v>526325.2061225858</v>
+        <v>605463.7149716201</v>
       </c>
       <c r="AE4" t="n">
-        <v>720141.3668462436</v>
+        <v>828422.1659980959</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.43051880769964e-06</v>
+        <v>2.803355949262442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>651412.0855191937</v>
+        <v>749358.7171730493</v>
       </c>
     </row>
     <row r="5">
@@ -14718,28 +14718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>524.2294003510347</v>
+        <v>603.3679092000689</v>
       </c>
       <c r="AB5" t="n">
-        <v>717.273792929182</v>
+        <v>825.5545920810346</v>
       </c>
       <c r="AC5" t="n">
-        <v>648.8181888321114</v>
+        <v>746.764820485967</v>
       </c>
       <c r="AD5" t="n">
-        <v>524229.4003510347</v>
+        <v>603367.9092000689</v>
       </c>
       <c r="AE5" t="n">
-        <v>717273.7929291821</v>
+        <v>825554.5920810346</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.434611401119555e-06</v>
+        <v>2.811376113729963e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>648818.1888321114</v>
+        <v>746764.820485967</v>
       </c>
     </row>
   </sheetData>
@@ -15015,28 +15015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2061.594075724952</v>
+        <v>2214.144332220625</v>
       </c>
       <c r="AB2" t="n">
-        <v>2820.763965518493</v>
+        <v>3029.48995649838</v>
       </c>
       <c r="AC2" t="n">
-        <v>2551.554211616497</v>
+        <v>2740.359686965919</v>
       </c>
       <c r="AD2" t="n">
-        <v>2061594.075724952</v>
+        <v>2214144.332220625</v>
       </c>
       <c r="AE2" t="n">
-        <v>2820763.965518493</v>
+        <v>3029489.95649838</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.175995829423514e-07</v>
+        <v>1.234616596810963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.94675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>2551554.211616497</v>
+        <v>2740359.686965919</v>
       </c>
     </row>
     <row r="3">
@@ -15121,28 +15121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1312.708133182702</v>
+        <v>1424.470312372287</v>
       </c>
       <c r="AB3" t="n">
-        <v>1796.105180416143</v>
+        <v>1949.023124582694</v>
       </c>
       <c r="AC3" t="n">
-        <v>1624.687422846679</v>
+        <v>1763.011093043657</v>
       </c>
       <c r="AD3" t="n">
-        <v>1312708.133182702</v>
+        <v>1424470.312372287</v>
       </c>
       <c r="AE3" t="n">
-        <v>1796105.180416143</v>
+        <v>1949023.124582694</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.677472166721056e-07</v>
+        <v>1.664990899690895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.46604938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>1624687.422846679</v>
+        <v>1763011.093043657</v>
       </c>
     </row>
     <row r="4">
@@ -15227,28 +15227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1137.125123022067</v>
+        <v>1238.882187922228</v>
       </c>
       <c r="AB4" t="n">
-        <v>1555.864759738652</v>
+        <v>1695.093265139923</v>
       </c>
       <c r="AC4" t="n">
-        <v>1407.375210739099</v>
+        <v>1533.315942993308</v>
       </c>
       <c r="AD4" t="n">
-        <v>1137125.123022067</v>
+        <v>1238882.187922228</v>
       </c>
       <c r="AE4" t="n">
-        <v>1555864.759738652</v>
+        <v>1695093.265139923</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064984975285092e-06</v>
+        <v>1.832286636023472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.50617283950617</v>
       </c>
       <c r="AH4" t="n">
-        <v>1407375.210739099</v>
+        <v>1533315.942993308</v>
       </c>
     </row>
     <row r="5">
@@ -15333,28 +15333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1058.399205741429</v>
+        <v>1160.070929787018</v>
       </c>
       <c r="AB5" t="n">
-        <v>1448.148486572935</v>
+        <v>1587.260224852008</v>
       </c>
       <c r="AC5" t="n">
-        <v>1309.93922750358</v>
+        <v>1435.774336725849</v>
       </c>
       <c r="AD5" t="n">
-        <v>1058399.205741429</v>
+        <v>1160070.929787018</v>
       </c>
       <c r="AE5" t="n">
-        <v>1448148.486572935</v>
+        <v>1587260.224852008</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.115111416740624e-06</v>
+        <v>1.918528236536003e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.62654320987654</v>
       </c>
       <c r="AH5" t="n">
-        <v>1309939.22750358</v>
+        <v>1435774.336725849</v>
       </c>
     </row>
     <row r="6">
@@ -15439,28 +15439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1018.236560645044</v>
+        <v>1109.732667709168</v>
       </c>
       <c r="AB6" t="n">
-        <v>1393.19618370121</v>
+        <v>1518.385193909705</v>
       </c>
       <c r="AC6" t="n">
-        <v>1260.231495291891</v>
+        <v>1373.472642069966</v>
       </c>
       <c r="AD6" t="n">
-        <v>1018236.560645044</v>
+        <v>1109732.667709169</v>
       </c>
       <c r="AE6" t="n">
-        <v>1393196.18370121</v>
+        <v>1518385.193909705</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.14612412380656e-06</v>
+        <v>1.971885016230114e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1260231.495291891</v>
+        <v>1373472.642069966</v>
       </c>
     </row>
     <row r="7">
@@ -15545,28 +15545,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>980.2254398556471</v>
+        <v>1071.806798265792</v>
       </c>
       <c r="AB7" t="n">
-        <v>1341.18769130486</v>
+        <v>1466.493346166004</v>
       </c>
       <c r="AC7" t="n">
-        <v>1213.186620415471</v>
+        <v>1326.533279444259</v>
       </c>
       <c r="AD7" t="n">
-        <v>980225.439855647</v>
+        <v>1071806.798265792</v>
       </c>
       <c r="AE7" t="n">
-        <v>1341187.69130486</v>
+        <v>1466493.346166004</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.167660725935682e-06</v>
+        <v>2.008938335462135e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.78935185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>1213186.620415471</v>
+        <v>1326533.279444259</v>
       </c>
     </row>
     <row r="8">
@@ -15651,28 +15651,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>958.1583597887368</v>
+        <v>1049.739718198881</v>
       </c>
       <c r="AB8" t="n">
-        <v>1310.994538826449</v>
+        <v>1436.300193687593</v>
       </c>
       <c r="AC8" t="n">
-        <v>1185.875060033244</v>
+        <v>1299.221719062031</v>
       </c>
       <c r="AD8" t="n">
-        <v>958158.3597887368</v>
+        <v>1049739.718198881</v>
       </c>
       <c r="AE8" t="n">
-        <v>1310994.538826449</v>
+        <v>1436300.193687593</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.184028543553815e-06</v>
+        <v>2.037098858078472e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.54243827160494</v>
       </c>
       <c r="AH8" t="n">
-        <v>1185875.060033244</v>
+        <v>1299221.719062031</v>
       </c>
     </row>
     <row r="9">
@@ -15757,28 +15757,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>941.7328160262522</v>
+        <v>1033.143582235805</v>
       </c>
       <c r="AB9" t="n">
-        <v>1288.52038520677</v>
+        <v>1413.592628293067</v>
       </c>
       <c r="AC9" t="n">
-        <v>1165.545808092354</v>
+        <v>1278.681331838491</v>
       </c>
       <c r="AD9" t="n">
-        <v>941732.8160262522</v>
+        <v>1033143.582235805</v>
       </c>
       <c r="AE9" t="n">
-        <v>1288520.38520677</v>
+        <v>1413592.628293067</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.195712150208864e-06</v>
+        <v>2.057200283761844e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.37268518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>1165545.808092354</v>
+        <v>1278681.331838491</v>
       </c>
     </row>
     <row r="10">
@@ -15863,28 +15863,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>928.5653330449206</v>
+        <v>1019.976099254473</v>
       </c>
       <c r="AB10" t="n">
-        <v>1270.504054083361</v>
+        <v>1395.576297169658</v>
       </c>
       <c r="AC10" t="n">
-        <v>1149.248930325284</v>
+        <v>1262.384454071421</v>
       </c>
       <c r="AD10" t="n">
-        <v>928565.3330449206</v>
+        <v>1019976.099254473</v>
       </c>
       <c r="AE10" t="n">
-        <v>1270504.054083361</v>
+        <v>1395576.297169658</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.204380632565836e-06</v>
+        <v>2.072114244752733e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.24922839506173</v>
       </c>
       <c r="AH10" t="n">
-        <v>1149248.930325284</v>
+        <v>1262384.45407142</v>
       </c>
     </row>
     <row r="11">
@@ -15969,28 +15969,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>915.3113739408832</v>
+        <v>996.717115369563</v>
       </c>
       <c r="AB11" t="n">
-        <v>1252.36940251381</v>
+        <v>1363.752329304375</v>
       </c>
       <c r="AC11" t="n">
-        <v>1132.845024449387</v>
+        <v>1233.59772103398</v>
       </c>
       <c r="AD11" t="n">
-        <v>915311.3739408832</v>
+        <v>996717.115369563</v>
       </c>
       <c r="AE11" t="n">
-        <v>1252369.40251381</v>
+        <v>1363752.329304375</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.212833748901516e-06</v>
+        <v>2.086657672551302e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.12577160493827</v>
       </c>
       <c r="AH11" t="n">
-        <v>1132845.024449387</v>
+        <v>1233597.72103398</v>
       </c>
     </row>
     <row r="12">
@@ -16075,28 +16075,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>905.4328326623</v>
+        <v>986.8385740909796</v>
       </c>
       <c r="AB12" t="n">
-        <v>1238.853146525968</v>
+        <v>1350.236073316534</v>
       </c>
       <c r="AC12" t="n">
-        <v>1120.618740962841</v>
+        <v>1221.371437547434</v>
       </c>
       <c r="AD12" t="n">
-        <v>905432.8326623</v>
+        <v>986838.5740909796</v>
       </c>
       <c r="AE12" t="n">
-        <v>1238853.146525968</v>
+        <v>1350236.073316534</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.218487106960411e-06</v>
+        <v>2.096384168849707e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.04861111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1120618.740962841</v>
+        <v>1221371.437547434</v>
       </c>
     </row>
     <row r="13">
@@ -16181,28 +16181,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>885.6779656134692</v>
+        <v>977.1739831690423</v>
       </c>
       <c r="AB13" t="n">
-        <v>1211.823665906533</v>
+        <v>1337.01255364548</v>
       </c>
       <c r="AC13" t="n">
-        <v>1096.16891603761</v>
+        <v>1209.409952034459</v>
       </c>
       <c r="AD13" t="n">
-        <v>885677.9656134691</v>
+        <v>977173.9831690424</v>
       </c>
       <c r="AE13" t="n">
-        <v>1211823.665906533</v>
+        <v>1337012.553645479</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.223494366955432e-06</v>
+        <v>2.104999065571152e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1096168.91603761</v>
+        <v>1209409.952034459</v>
       </c>
     </row>
     <row r="14">
@@ -16287,28 +16287,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>875.4992847918979</v>
+        <v>966.9953023474709</v>
       </c>
       <c r="AB14" t="n">
-        <v>1197.896745754754</v>
+        <v>1323.0856334937</v>
       </c>
       <c r="AC14" t="n">
-        <v>1083.571161598561</v>
+        <v>1196.81219759541</v>
       </c>
       <c r="AD14" t="n">
-        <v>875499.284791898</v>
+        <v>966995.3023474709</v>
       </c>
       <c r="AE14" t="n">
-        <v>1197896.745754754</v>
+        <v>1323085.6334937</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.228555468455775e-06</v>
+        <v>2.113706595590677e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.90586419753086</v>
       </c>
       <c r="AH14" t="n">
-        <v>1083571.161598561</v>
+        <v>1196812.19759541</v>
       </c>
     </row>
     <row r="15">
@@ -16393,28 +16393,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>867.1363442796691</v>
+        <v>958.6323618352421</v>
       </c>
       <c r="AB15" t="n">
-        <v>1186.454201599026</v>
+        <v>1311.643089337972</v>
       </c>
       <c r="AC15" t="n">
-        <v>1073.220677797344</v>
+        <v>1186.461713794193</v>
       </c>
       <c r="AD15" t="n">
-        <v>867136.3442796691</v>
+        <v>958632.3618352421</v>
       </c>
       <c r="AE15" t="n">
-        <v>1186454.201599026</v>
+        <v>1311643.089337972</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.232001324796435e-06</v>
+        <v>2.119635126667801e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.85956790123457</v>
       </c>
       <c r="AH15" t="n">
-        <v>1073220.677797345</v>
+        <v>1186461.713794193</v>
       </c>
     </row>
     <row r="16">
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>858.4906028455338</v>
+        <v>949.9866204011067</v>
       </c>
       <c r="AB16" t="n">
-        <v>1174.624716745649</v>
+        <v>1299.813604484596</v>
       </c>
       <c r="AC16" t="n">
-        <v>1062.520182375588</v>
+        <v>1175.761218372437</v>
       </c>
       <c r="AD16" t="n">
-        <v>858490.6028455338</v>
+        <v>949986.6204011068</v>
       </c>
       <c r="AE16" t="n">
-        <v>1174624.716745649</v>
+        <v>1299813.604484596</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.235877913179677e-06</v>
+        <v>2.126304724129565e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.80941358024691</v>
       </c>
       <c r="AH16" t="n">
-        <v>1062520.182375588</v>
+        <v>1175761.218372437</v>
       </c>
     </row>
     <row r="17">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>851.2881464289999</v>
+        <v>942.784163984573</v>
       </c>
       <c r="AB17" t="n">
-        <v>1164.769998126596</v>
+        <v>1289.958885865542</v>
       </c>
       <c r="AC17" t="n">
-        <v>1053.605984270353</v>
+        <v>1166.847020267202</v>
       </c>
       <c r="AD17" t="n">
-        <v>851288.1464289998</v>
+        <v>942784.163984573</v>
       </c>
       <c r="AE17" t="n">
-        <v>1164769.998126596</v>
+        <v>1289958.885865543</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.237385475328715e-06</v>
+        <v>2.128898456475806e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.78626543209877</v>
       </c>
       <c r="AH17" t="n">
-        <v>1053605.984270353</v>
+        <v>1166847.020267202</v>
       </c>
     </row>
     <row r="18">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>843.2509702097531</v>
+        <v>934.7469877653261</v>
       </c>
       <c r="AB18" t="n">
-        <v>1153.773179048233</v>
+        <v>1278.962066787179</v>
       </c>
       <c r="AC18" t="n">
-        <v>1043.658686170696</v>
+        <v>1156.899722167545</v>
       </c>
       <c r="AD18" t="n">
-        <v>843250.970209753</v>
+        <v>934746.9877653262</v>
       </c>
       <c r="AE18" t="n">
-        <v>1153773.179048233</v>
+        <v>1278962.066787179</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.241046697690666e-06</v>
+        <v>2.13519752074525e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.73611111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>1043658.686170696</v>
+        <v>1156899.722167545</v>
       </c>
     </row>
     <row r="19">
@@ -16817,28 +16817,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>835.3719372407566</v>
+        <v>926.8679547963297</v>
       </c>
       <c r="AB19" t="n">
-        <v>1142.992738541649</v>
+        <v>1268.181626280596</v>
       </c>
       <c r="AC19" t="n">
-        <v>1033.907115775618</v>
+        <v>1147.148151772466</v>
       </c>
       <c r="AD19" t="n">
-        <v>835371.9372407566</v>
+        <v>926867.9547963297</v>
       </c>
       <c r="AE19" t="n">
-        <v>1142992.738541649</v>
+        <v>1268181.626280596</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.242715784355673e-06</v>
+        <v>2.138069152985731e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.71682098765432</v>
       </c>
       <c r="AH19" t="n">
-        <v>1033907.115775618</v>
+        <v>1147148.151772466</v>
       </c>
     </row>
     <row r="20">
@@ -16923,28 +16923,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>828.0935404922135</v>
+        <v>919.5895580477866</v>
       </c>
       <c r="AB20" t="n">
-        <v>1133.03411501009</v>
+        <v>1258.223002749037</v>
       </c>
       <c r="AC20" t="n">
-        <v>1024.898929296894</v>
+        <v>1138.139965293743</v>
       </c>
       <c r="AD20" t="n">
-        <v>828093.5404922134</v>
+        <v>919589.5580477866</v>
       </c>
       <c r="AE20" t="n">
-        <v>1133034.11501009</v>
+        <v>1258223.002749037</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.244869444568586e-06</v>
+        <v>2.141774484908934e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.68595679012346</v>
       </c>
       <c r="AH20" t="n">
-        <v>1024898.929296895</v>
+        <v>1138139.965293743</v>
       </c>
     </row>
     <row r="21">
@@ -17029,28 +17029,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>823.6171807709899</v>
+        <v>915.113198326563</v>
       </c>
       <c r="AB21" t="n">
-        <v>1126.909362156459</v>
+        <v>1252.098249895405</v>
       </c>
       <c r="AC21" t="n">
-        <v>1019.358714259469</v>
+        <v>1132.599750256318</v>
       </c>
       <c r="AD21" t="n">
-        <v>823617.1807709899</v>
+        <v>915113.198326563</v>
       </c>
       <c r="AE21" t="n">
-        <v>1126909.362156459</v>
+        <v>1252098.249895405</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.246000116180364e-06</v>
+        <v>2.143719784168615e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.67052469135803</v>
       </c>
       <c r="AH21" t="n">
-        <v>1019358.714259469</v>
+        <v>1132599.750256318</v>
       </c>
     </row>
     <row r="22">
@@ -17135,28 +17135,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>824.472184825925</v>
+        <v>915.9682023814979</v>
       </c>
       <c r="AB22" t="n">
-        <v>1128.079216424538</v>
+        <v>1253.268104163484</v>
       </c>
       <c r="AC22" t="n">
-        <v>1020.416919278103</v>
+        <v>1133.657955274952</v>
       </c>
       <c r="AD22" t="n">
-        <v>824472.1848259249</v>
+        <v>915968.2023814979</v>
       </c>
       <c r="AE22" t="n">
-        <v>1128079.216424538</v>
+        <v>1253268.104163484</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.245569384137782e-06</v>
+        <v>2.142978717783975e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH22" t="n">
-        <v>1020416.919278103</v>
+        <v>1133657.955274952</v>
       </c>
     </row>
     <row r="23">
@@ -17241,28 +17241,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>827.5700455360981</v>
+        <v>919.0660630916714</v>
       </c>
       <c r="AB23" t="n">
-        <v>1132.317846116166</v>
+        <v>1257.506733855112</v>
       </c>
       <c r="AC23" t="n">
-        <v>1024.251020100916</v>
+        <v>1137.492056097765</v>
       </c>
       <c r="AD23" t="n">
-        <v>827570.0455360981</v>
+        <v>919066.0630916713</v>
       </c>
       <c r="AE23" t="n">
-        <v>1132317.846116166</v>
+        <v>1257506.733855112</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.245623225643105e-06</v>
+        <v>2.143071351082054e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH23" t="n">
-        <v>1024251.020100916</v>
+        <v>1137492.056097765</v>
       </c>
     </row>
   </sheetData>
@@ -17538,28 +17538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>598.6318481144665</v>
+        <v>684.7212620891078</v>
       </c>
       <c r="AB2" t="n">
-        <v>819.0745043634444</v>
+        <v>936.8658385604439</v>
       </c>
       <c r="AC2" t="n">
-        <v>740.9031832452836</v>
+        <v>847.4526778276971</v>
       </c>
       <c r="AD2" t="n">
-        <v>598631.8481144665</v>
+        <v>684721.2620891078</v>
       </c>
       <c r="AE2" t="n">
-        <v>819074.5043634444</v>
+        <v>936865.8385604438</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.316925878961447e-06</v>
+        <v>2.639989128481213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.87731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>740903.1832452836</v>
+        <v>847452.6778276971</v>
       </c>
     </row>
     <row r="3">
@@ -17644,28 +17644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.6848246443298</v>
+        <v>581.0715117900291</v>
       </c>
       <c r="AB3" t="n">
-        <v>689.1637980845562</v>
+        <v>795.0476774969867</v>
       </c>
       <c r="AC3" t="n">
-        <v>623.390972442831</v>
+        <v>719.1694430130972</v>
       </c>
       <c r="AD3" t="n">
-        <v>503684.8246443297</v>
+        <v>581071.5117900291</v>
       </c>
       <c r="AE3" t="n">
-        <v>689163.7980845562</v>
+        <v>795047.6774969867</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.441672356193532e-06</v>
+        <v>2.890063448509574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.24151234567901</v>
       </c>
       <c r="AH3" t="n">
-        <v>623390.9724428309</v>
+        <v>719169.4430130972</v>
       </c>
     </row>
     <row r="4">
@@ -17750,28 +17750,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.0495733196379</v>
+        <v>564.9894666915592</v>
       </c>
       <c r="AB4" t="n">
-        <v>678.7169103785977</v>
+        <v>773.0435139035038</v>
       </c>
       <c r="AC4" t="n">
-        <v>613.9411210372301</v>
+        <v>699.2653259099385</v>
       </c>
       <c r="AD4" t="n">
-        <v>496049.5733196379</v>
+        <v>564989.4666915592</v>
       </c>
       <c r="AE4" t="n">
-        <v>678716.9103785977</v>
+        <v>773043.5139035038</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.454237213146144e-06</v>
+        <v>2.915251719380199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>613941.1210372301</v>
+        <v>699265.3259099385</v>
       </c>
     </row>
   </sheetData>
@@ -18047,28 +18047,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1530.238404950458</v>
+        <v>1657.653085425959</v>
       </c>
       <c r="AB2" t="n">
-        <v>2093.739695007071</v>
+        <v>2268.074081972635</v>
       </c>
       <c r="AC2" t="n">
-        <v>1893.916117097714</v>
+        <v>2051.612274851134</v>
       </c>
       <c r="AD2" t="n">
-        <v>1530238.404950458</v>
+        <v>1657653.085425959</v>
       </c>
       <c r="AE2" t="n">
-        <v>2093739.695007071</v>
+        <v>2268074.081972635</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.510631367953576e-07</v>
+        <v>1.507296055127869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.37422839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>1893916.117097714</v>
+        <v>2051612.274851134</v>
       </c>
     </row>
     <row r="3">
@@ -18153,28 +18153,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1070.076710484336</v>
+        <v>1168.133976581465</v>
       </c>
       <c r="AB3" t="n">
-        <v>1464.126163737331</v>
+        <v>1598.29244119269</v>
       </c>
       <c r="AC3" t="n">
-        <v>1324.392017584216</v>
+        <v>1445.753653822789</v>
       </c>
       <c r="AD3" t="n">
-        <v>1070076.710484336</v>
+        <v>1168133.976581465</v>
       </c>
       <c r="AE3" t="n">
-        <v>1464126.163737331</v>
+        <v>1598292.44119269</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.075807841756773e-06</v>
+        <v>1.905335627696824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.0733024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>1324392.017584216</v>
+        <v>1445753.653822789</v>
       </c>
     </row>
     <row r="4">
@@ -18259,28 +18259,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>947.3064781825256</v>
+        <v>1045.363654771104</v>
       </c>
       <c r="AB4" t="n">
-        <v>1296.146515661603</v>
+        <v>1430.312670647414</v>
       </c>
       <c r="AC4" t="n">
-        <v>1172.444111359919</v>
+        <v>1293.805636817266</v>
       </c>
       <c r="AD4" t="n">
-        <v>947306.4781825256</v>
+        <v>1045363.654771104</v>
       </c>
       <c r="AE4" t="n">
-        <v>1296146.515661603</v>
+        <v>1430312.670647414</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158764666850875e-06</v>
+        <v>2.052258329202973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.63811728395062</v>
       </c>
       <c r="AH4" t="n">
-        <v>1172444.111359919</v>
+        <v>1293805.636817266</v>
       </c>
     </row>
     <row r="5">
@@ -18365,28 +18365,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>887.5865689858771</v>
+        <v>985.5584047198835</v>
       </c>
       <c r="AB5" t="n">
-        <v>1214.4351012423</v>
+        <v>1348.484489105913</v>
       </c>
       <c r="AC5" t="n">
-        <v>1098.531119650104</v>
+        <v>1219.787022075511</v>
       </c>
       <c r="AD5" t="n">
-        <v>887586.5689858771</v>
+        <v>985558.4047198835</v>
       </c>
       <c r="AE5" t="n">
-        <v>1214435.1012423</v>
+        <v>1348484.489105913</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.20225822494677e-06</v>
+        <v>2.129288652462271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.96296296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>1098531.119650104</v>
+        <v>1219787.022075512</v>
       </c>
     </row>
     <row r="6">
@@ -18471,28 +18471,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>855.2984344165862</v>
+        <v>943.6267001154209</v>
       </c>
       <c r="AB6" t="n">
-        <v>1170.257051072632</v>
+        <v>1291.11168096984</v>
       </c>
       <c r="AC6" t="n">
-        <v>1058.569360584346</v>
+        <v>1167.889794224703</v>
       </c>
       <c r="AD6" t="n">
-        <v>855298.4344165863</v>
+        <v>943626.700115421</v>
       </c>
       <c r="AE6" t="n">
-        <v>1170257.051072632</v>
+        <v>1291111.68096984</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.230190381304366e-06</v>
+        <v>2.178758576923519e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.55401234567901</v>
       </c>
       <c r="AH6" t="n">
-        <v>1058569.360584346</v>
+        <v>1167889.794224703</v>
       </c>
     </row>
     <row r="7">
@@ -18577,28 +18577,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>834.6558069155817</v>
+        <v>922.8134804138241</v>
       </c>
       <c r="AB7" t="n">
-        <v>1142.012897437305</v>
+        <v>1262.634115559666</v>
       </c>
       <c r="AC7" t="n">
-        <v>1033.020789331056</v>
+        <v>1142.130087688762</v>
       </c>
       <c r="AD7" t="n">
-        <v>834655.8069155817</v>
+        <v>922813.4804138241</v>
       </c>
       <c r="AE7" t="n">
-        <v>1142012.897437305</v>
+        <v>1262634.115559666</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.246311545695122e-06</v>
+        <v>2.207310356973296e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.32638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1033020.789331056</v>
+        <v>1142130.087688762</v>
       </c>
     </row>
     <row r="8">
@@ -18683,28 +18683,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>815.7913688511545</v>
+        <v>894.3054723142253</v>
       </c>
       <c r="AB8" t="n">
-        <v>1116.201741037285</v>
+        <v>1223.628201193241</v>
       </c>
       <c r="AC8" t="n">
-        <v>1009.673013471668</v>
+        <v>1106.846843044323</v>
       </c>
       <c r="AD8" t="n">
-        <v>815791.3688511545</v>
+        <v>894305.4723142253</v>
       </c>
       <c r="AE8" t="n">
-        <v>1116201.741037285</v>
+        <v>1223628.20119324</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.26047354080228e-06</v>
+        <v>2.232392302642025e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.13348765432099</v>
       </c>
       <c r="AH8" t="n">
-        <v>1009673.013471668</v>
+        <v>1106846.843044323</v>
       </c>
     </row>
     <row r="9">
@@ -18789,28 +18789,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>791.2006909131552</v>
+        <v>879.4436157574182</v>
       </c>
       <c r="AB9" t="n">
-        <v>1082.555690618369</v>
+        <v>1203.29355339338</v>
       </c>
       <c r="AC9" t="n">
-        <v>979.238094882206</v>
+        <v>1088.452905490624</v>
       </c>
       <c r="AD9" t="n">
-        <v>791200.6909131552</v>
+        <v>879443.6157574182</v>
       </c>
       <c r="AE9" t="n">
-        <v>1082555.690618369</v>
+        <v>1203293.55339338</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.27032536348552e-06</v>
+        <v>2.249840612672445e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.99845679012346</v>
       </c>
       <c r="AH9" t="n">
-        <v>979238.0948822061</v>
+        <v>1088452.905490624</v>
       </c>
     </row>
     <row r="10">
@@ -18895,28 +18895,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>779.334261879477</v>
+        <v>867.5771867237401</v>
       </c>
       <c r="AB10" t="n">
-        <v>1066.31951890459</v>
+        <v>1187.0573816796</v>
       </c>
       <c r="AC10" t="n">
-        <v>964.551480609179</v>
+        <v>1073.766291217597</v>
       </c>
       <c r="AD10" t="n">
-        <v>779334.2618794771</v>
+        <v>867577.1867237401</v>
       </c>
       <c r="AE10" t="n">
-        <v>1066319.51890459</v>
+        <v>1187057.3816796</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.276202871336317e-06</v>
+        <v>2.260250115815593e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.92129629629629</v>
       </c>
       <c r="AH10" t="n">
-        <v>964551.480609179</v>
+        <v>1073766.291217597</v>
       </c>
     </row>
     <row r="11">
@@ -19001,28 +19001,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>767.0617324717718</v>
+        <v>855.3046573160349</v>
       </c>
       <c r="AB11" t="n">
-        <v>1049.527702743182</v>
+        <v>1170.265565518192</v>
       </c>
       <c r="AC11" t="n">
-        <v>949.362251814754</v>
+        <v>1058.577062423172</v>
       </c>
       <c r="AD11" t="n">
-        <v>767061.7324717719</v>
+        <v>855304.6573160349</v>
       </c>
       <c r="AE11" t="n">
-        <v>1049527.702743182</v>
+        <v>1170265.565518192</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.282696118104816e-06</v>
+        <v>2.271750138335643e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.83641975308642</v>
       </c>
       <c r="AH11" t="n">
-        <v>949362.251814754</v>
+        <v>1058577.062423172</v>
       </c>
     </row>
     <row r="12">
@@ -19107,28 +19107,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>751.4862838730312</v>
+        <v>839.7292087172941</v>
       </c>
       <c r="AB12" t="n">
-        <v>1028.216686830089</v>
+        <v>1148.954549605098</v>
       </c>
       <c r="AC12" t="n">
-        <v>930.0851293502075</v>
+        <v>1039.299939958626</v>
       </c>
       <c r="AD12" t="n">
-        <v>751486.2838730311</v>
+        <v>839729.2087172942</v>
       </c>
       <c r="AE12" t="n">
-        <v>1028216.686830088</v>
+        <v>1148954.549605099</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.290140961382492e-06</v>
+        <v>2.284935508983631e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.73996913580247</v>
       </c>
       <c r="AH12" t="n">
-        <v>930085.1293502075</v>
+        <v>1039299.939958626</v>
       </c>
     </row>
     <row r="13">
@@ -19213,28 +19213,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>743.3770996293948</v>
+        <v>831.6200244736578</v>
       </c>
       <c r="AB13" t="n">
-        <v>1017.121343195985</v>
+        <v>1137.859205970996</v>
       </c>
       <c r="AC13" t="n">
-        <v>920.0487097401309</v>
+        <v>1029.263520348549</v>
       </c>
       <c r="AD13" t="n">
-        <v>743377.0996293948</v>
+        <v>831620.0244736578</v>
       </c>
       <c r="AE13" t="n">
-        <v>1017121.343195985</v>
+        <v>1137859.205970996</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.292995750910021e-06</v>
+        <v>2.289991553367445e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>920048.7097401309</v>
+        <v>1029263.520348549</v>
       </c>
     </row>
     <row r="14">
@@ -19319,28 +19319,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>734.4865538168979</v>
+        <v>822.7294786611609</v>
       </c>
       <c r="AB14" t="n">
-        <v>1004.956906192127</v>
+        <v>1125.694768967138</v>
       </c>
       <c r="AC14" t="n">
-        <v>909.0452295310264</v>
+        <v>1018.260040139444</v>
       </c>
       <c r="AD14" t="n">
-        <v>734486.5538168979</v>
+        <v>822729.4786611609</v>
       </c>
       <c r="AE14" t="n">
-        <v>1004956.906192127</v>
+        <v>1125694.768967138</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.296186398029025e-06</v>
+        <v>2.295642426502297e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.66280864197531</v>
       </c>
       <c r="AH14" t="n">
-        <v>909045.2295310264</v>
+        <v>1018260.040139444</v>
       </c>
     </row>
     <row r="15">
@@ -19425,28 +19425,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>732.8472781389697</v>
+        <v>821.0902029832326</v>
       </c>
       <c r="AB15" t="n">
-        <v>1002.713976889847</v>
+        <v>1123.451839664857</v>
       </c>
       <c r="AC15" t="n">
-        <v>907.0163622533846</v>
+        <v>1016.231172861803</v>
       </c>
       <c r="AD15" t="n">
-        <v>732847.2781389697</v>
+        <v>821090.2029832327</v>
       </c>
       <c r="AE15" t="n">
-        <v>1002713.976889847</v>
+        <v>1123451.839664857</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.297473852129676e-06</v>
+        <v>2.297922603381272e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.64351851851852</v>
       </c>
       <c r="AH15" t="n">
-        <v>907016.3622533847</v>
+        <v>1016231.172861803</v>
       </c>
     </row>
   </sheetData>
@@ -19722,28 +19722,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1786.227423065604</v>
+        <v>1926.087514578571</v>
       </c>
       <c r="AB2" t="n">
-        <v>2443.995163030643</v>
+        <v>2635.357910430451</v>
       </c>
       <c r="AC2" t="n">
-        <v>2210.743694839753</v>
+        <v>2383.843050207026</v>
       </c>
       <c r="AD2" t="n">
-        <v>1786227.423065604</v>
+        <v>1926087.514578571</v>
       </c>
       <c r="AE2" t="n">
-        <v>2443995.163030643</v>
+        <v>2635357.910430451</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.811108618737878e-07</v>
+        <v>1.362189137128911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.09104938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>2210743.694839753</v>
+        <v>2383843.050207026</v>
       </c>
     </row>
     <row r="3">
@@ -19828,28 +19828,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1182.657000012257</v>
+        <v>1292.595767789767</v>
       </c>
       <c r="AB3" t="n">
-        <v>1618.163482561274</v>
+        <v>1768.586554790591</v>
       </c>
       <c r="AC3" t="n">
-        <v>1463.728230892337</v>
+        <v>1599.795136228196</v>
       </c>
       <c r="AD3" t="n">
-        <v>1182657.000012257</v>
+        <v>1292595.767789767</v>
       </c>
       <c r="AE3" t="n">
-        <v>1618163.482561274</v>
+        <v>1768586.554790591</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020566698339239e-06</v>
+        <v>1.77977920683154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.73302469135803</v>
       </c>
       <c r="AH3" t="n">
-        <v>1463728.230892337</v>
+        <v>1599795.136228196</v>
       </c>
     </row>
     <row r="4">
@@ -19934,28 +19934,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1046.81328997453</v>
+        <v>1136.833104727511</v>
       </c>
       <c r="AB4" t="n">
-        <v>1432.296125486134</v>
+        <v>1555.465207425103</v>
       </c>
       <c r="AC4" t="n">
-        <v>1295.599793509974</v>
+        <v>1407.013791137581</v>
       </c>
       <c r="AD4" t="n">
-        <v>1046813.28997453</v>
+        <v>1136833.104727512</v>
       </c>
       <c r="AE4" t="n">
-        <v>1432296.125486134</v>
+        <v>1555465.207425103</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.109910160914187e-06</v>
+        <v>1.935586404162181e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1295599.793509974</v>
+        <v>1407013.791137581</v>
       </c>
     </row>
     <row r="5">
@@ -20040,28 +20040,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>977.2455371141972</v>
+        <v>1067.180011012608</v>
       </c>
       <c r="AB5" t="n">
-        <v>1337.110456909978</v>
+        <v>1460.162771726749</v>
       </c>
       <c r="AC5" t="n">
-        <v>1209.498511548801</v>
+        <v>1320.806886144469</v>
       </c>
       <c r="AD5" t="n">
-        <v>977245.5371141972</v>
+        <v>1067180.011012607</v>
       </c>
       <c r="AE5" t="n">
-        <v>1337110.456909978</v>
+        <v>1460162.77172675</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.157735513501881e-06</v>
+        <v>2.018989643003384e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.27546296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>1209498.511548801</v>
+        <v>1320806.886144469</v>
       </c>
     </row>
     <row r="6">
@@ -20146,28 +20146,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>932.3048034308637</v>
+        <v>1032.156038659977</v>
       </c>
       <c r="AB6" t="n">
-        <v>1275.620562439199</v>
+        <v>1412.241427605271</v>
       </c>
       <c r="AC6" t="n">
-        <v>1153.877126304705</v>
+        <v>1277.459087847916</v>
       </c>
       <c r="AD6" t="n">
-        <v>932304.8034308637</v>
+        <v>1032156.038659977</v>
       </c>
       <c r="AE6" t="n">
-        <v>1275620.562439199</v>
+        <v>1412241.427605271</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.186200373585612e-06</v>
+        <v>2.068629873460476e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.83950617283951</v>
       </c>
       <c r="AH6" t="n">
-        <v>1153877.126304705</v>
+        <v>1277459.087847916</v>
       </c>
     </row>
     <row r="7">
@@ -20252,28 +20252,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>908.4520388938582</v>
+        <v>998.471764138289</v>
       </c>
       <c r="AB7" t="n">
-        <v>1242.984157689965</v>
+        <v>1366.153117159386</v>
       </c>
       <c r="AC7" t="n">
-        <v>1124.355494219256</v>
+        <v>1235.769381065636</v>
       </c>
       <c r="AD7" t="n">
-        <v>908452.0388938582</v>
+        <v>998471.764138289</v>
       </c>
       <c r="AE7" t="n">
-        <v>1242984.157689965</v>
+        <v>1366153.117159386</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.205451174913915e-06</v>
+        <v>2.102201590012383e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.55401234567901</v>
       </c>
       <c r="AH7" t="n">
-        <v>1124355.494219256</v>
+        <v>1235769.381065636</v>
       </c>
     </row>
     <row r="8">
@@ -20358,28 +20358,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>888.3389296393792</v>
+        <v>978.1880626832179</v>
       </c>
       <c r="AB8" t="n">
-        <v>1215.464514280231</v>
+        <v>1338.400061974805</v>
       </c>
       <c r="AC8" t="n">
-        <v>1099.462286952485</v>
+        <v>1210.665038516214</v>
       </c>
       <c r="AD8" t="n">
-        <v>888338.9296393793</v>
+        <v>978188.0626832179</v>
       </c>
       <c r="AE8" t="n">
-        <v>1215464.514280231</v>
+        <v>1338400.061974805</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.220643402742804e-06</v>
+        <v>2.128695508772718e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.33410493827161</v>
       </c>
       <c r="AH8" t="n">
-        <v>1099462.286952485</v>
+        <v>1210665.038516214</v>
       </c>
     </row>
     <row r="9">
@@ -20464,28 +20464,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>871.9184349094951</v>
+        <v>961.7675679533338</v>
       </c>
       <c r="AB9" t="n">
-        <v>1192.997268969703</v>
+        <v>1315.932816664277</v>
       </c>
       <c r="AC9" t="n">
-        <v>1079.139284001417</v>
+        <v>1190.342035565146</v>
       </c>
       <c r="AD9" t="n">
-        <v>871918.4349094951</v>
+        <v>961767.5679533338</v>
       </c>
       <c r="AE9" t="n">
-        <v>1192997.268969703</v>
+        <v>1315932.816664277</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.231831902660109e-06</v>
+        <v>2.148207275657587e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.17592592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>1079139.284001417</v>
+        <v>1190342.035565146</v>
       </c>
     </row>
     <row r="10">
@@ -20570,28 +20570,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>859.2301228306978</v>
+        <v>939.2477458898541</v>
       </c>
       <c r="AB10" t="n">
-        <v>1175.63656061467</v>
+        <v>1285.120202612593</v>
       </c>
       <c r="AC10" t="n">
-        <v>1063.435457285881</v>
+        <v>1162.470134152779</v>
       </c>
       <c r="AD10" t="n">
-        <v>859230.1228306978</v>
+        <v>939247.745889854</v>
       </c>
       <c r="AE10" t="n">
-        <v>1175636.56061467</v>
+        <v>1285120.202612593</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.240278123185918e-06</v>
+        <v>2.162936746737341e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.06018518518518</v>
       </c>
       <c r="AH10" t="n">
-        <v>1063435.457285881</v>
+        <v>1162470.134152779</v>
       </c>
     </row>
     <row r="11">
@@ -20676,28 +20676,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>837.6051987792785</v>
+        <v>927.5395831691376</v>
       </c>
       <c r="AB11" t="n">
-        <v>1146.048385503201</v>
+        <v>1269.100577850424</v>
       </c>
       <c r="AC11" t="n">
-        <v>1036.671136079786</v>
+        <v>1147.979399894227</v>
       </c>
       <c r="AD11" t="n">
-        <v>837605.1987792784</v>
+        <v>927539.5831691376</v>
       </c>
       <c r="AE11" t="n">
-        <v>1146048.385503201</v>
+        <v>1269100.577850424</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.246749902549849e-06</v>
+        <v>2.174222964837412e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.97145061728395</v>
       </c>
       <c r="AH11" t="n">
-        <v>1036671.136079786</v>
+        <v>1147979.399894227</v>
       </c>
     </row>
     <row r="12">
@@ -20782,28 +20782,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>827.7894676929216</v>
+        <v>917.7238520827808</v>
       </c>
       <c r="AB12" t="n">
-        <v>1132.618069191354</v>
+        <v>1255.670261538578</v>
       </c>
       <c r="AC12" t="n">
-        <v>1024.522590307174</v>
+        <v>1135.830854121616</v>
       </c>
       <c r="AD12" t="n">
-        <v>827789.4676929215</v>
+        <v>917723.8520827808</v>
       </c>
       <c r="AE12" t="n">
-        <v>1132618.069191354</v>
+        <v>1255670.261538577</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.251631159866712e-06</v>
+        <v>2.182735451370516e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.90586419753086</v>
       </c>
       <c r="AH12" t="n">
-        <v>1024522.590307174</v>
+        <v>1135830.854121616</v>
       </c>
     </row>
     <row r="13">
@@ -20888,28 +20888,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>816.0706864732809</v>
+        <v>906.0050708631402</v>
       </c>
       <c r="AB13" t="n">
-        <v>1116.583915730502</v>
+        <v>1239.636108077726</v>
       </c>
       <c r="AC13" t="n">
-        <v>1010.01871394855</v>
+        <v>1121.326977762992</v>
       </c>
       <c r="AD13" t="n">
-        <v>816070.6864732809</v>
+        <v>906005.0708631402</v>
       </c>
       <c r="AE13" t="n">
-        <v>1116583.915730502</v>
+        <v>1239636.108077726</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.257060873061874e-06</v>
+        <v>2.192204397064643e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.83256172839506</v>
       </c>
       <c r="AH13" t="n">
-        <v>1010018.71394855</v>
+        <v>1121326.977762992</v>
       </c>
     </row>
     <row r="14">
@@ -20994,28 +20994,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>806.2232579551895</v>
+        <v>896.1576423450488</v>
       </c>
       <c r="AB14" t="n">
-        <v>1103.110229594164</v>
+        <v>1226.162421941388</v>
       </c>
       <c r="AC14" t="n">
-        <v>997.8309375066275</v>
+        <v>1109.139201321069</v>
       </c>
       <c r="AD14" t="n">
-        <v>806223.2579551896</v>
+        <v>896157.6423450487</v>
       </c>
       <c r="AE14" t="n">
-        <v>1103110.229594164</v>
+        <v>1226162.421941388</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.26002253480469e-06</v>
+        <v>2.197369276534168e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.79398148148148</v>
       </c>
       <c r="AH14" t="n">
-        <v>997830.9375066275</v>
+        <v>1109139.201321069</v>
       </c>
     </row>
     <row r="15">
@@ -21100,28 +21100,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>798.5182848782994</v>
+        <v>888.4526692681585</v>
       </c>
       <c r="AB15" t="n">
-        <v>1092.567945510941</v>
+        <v>1215.620137858165</v>
       </c>
       <c r="AC15" t="n">
-        <v>988.2947942201185</v>
+        <v>1099.60305803456</v>
       </c>
       <c r="AD15" t="n">
-        <v>798518.2848782993</v>
+        <v>888452.6692681585</v>
       </c>
       <c r="AE15" t="n">
-        <v>1092567.945510941</v>
+        <v>1215620.137858165</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.262929350959676e-06</v>
+        <v>2.20243851008759e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.7554012345679</v>
       </c>
       <c r="AH15" t="n">
-        <v>988294.7942201186</v>
+        <v>1099603.05803456</v>
       </c>
     </row>
     <row r="16">
@@ -21206,28 +21206,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>788.1917338689836</v>
+        <v>878.1261182588429</v>
       </c>
       <c r="AB16" t="n">
-        <v>1078.438702844718</v>
+        <v>1201.490895191942</v>
       </c>
       <c r="AC16" t="n">
-        <v>975.5140266434431</v>
+        <v>1086.822290457884</v>
       </c>
       <c r="AD16" t="n">
-        <v>788191.7338689837</v>
+        <v>878126.1182588428</v>
       </c>
       <c r="AE16" t="n">
-        <v>1078438.702844718</v>
+        <v>1201490.895191942</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.26753638033739e-06</v>
+        <v>2.210472767040183e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.69367283950617</v>
       </c>
       <c r="AH16" t="n">
-        <v>975514.0266434432</v>
+        <v>1086822.290457884</v>
       </c>
     </row>
     <row r="17">
@@ -21312,28 +21312,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>778.208582148097</v>
+        <v>868.142966537956</v>
       </c>
       <c r="AB17" t="n">
-        <v>1064.77931423463</v>
+        <v>1187.831506581854</v>
       </c>
       <c r="AC17" t="n">
-        <v>963.1582709112298</v>
+        <v>1074.466534725671</v>
       </c>
       <c r="AD17" t="n">
-        <v>778208.582148097</v>
+        <v>868142.966537956</v>
       </c>
       <c r="AE17" t="n">
-        <v>1064779.31423463</v>
+        <v>1187831.506581854</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.270498042080206e-06</v>
+        <v>2.215637646509706e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.6550925925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>963158.2709112298</v>
+        <v>1074466.534725671</v>
       </c>
     </row>
     <row r="18">
@@ -21418,28 +21418,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>778.2229702169806</v>
+        <v>868.1573546068397</v>
       </c>
       <c r="AB18" t="n">
-        <v>1064.799000625234</v>
+        <v>1187.851192972457</v>
       </c>
       <c r="AC18" t="n">
-        <v>963.1760784603441</v>
+        <v>1074.484342274785</v>
       </c>
       <c r="AD18" t="n">
-        <v>778222.9702169806</v>
+        <v>868157.3546068397</v>
       </c>
       <c r="AE18" t="n">
-        <v>1064799.000625234</v>
+        <v>1187851.192972457</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.269730203850587e-06</v>
+        <v>2.214298603684275e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.66280864197531</v>
       </c>
       <c r="AH18" t="n">
-        <v>963176.0784603441</v>
+        <v>1074484.342274785</v>
       </c>
     </row>
   </sheetData>
@@ -21715,28 +21715,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2379.402921721374</v>
+        <v>2544.716386048392</v>
       </c>
       <c r="AB2" t="n">
-        <v>3255.604049347735</v>
+        <v>3481.793224355299</v>
       </c>
       <c r="AC2" t="n">
-        <v>2944.893768146845</v>
+        <v>3149.49576575018</v>
       </c>
       <c r="AD2" t="n">
-        <v>2379402.921721374</v>
+        <v>2544716.386048392</v>
       </c>
       <c r="AE2" t="n">
-        <v>3255604.049347735</v>
+        <v>3481793.224355299</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.598220716316245e-07</v>
+        <v>1.121653791156225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.95293209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>2944893.768146845</v>
+        <v>3149495.76575018</v>
       </c>
     </row>
     <row r="3">
@@ -21821,28 +21821,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1448.520615982249</v>
+        <v>1562.147043198572</v>
       </c>
       <c r="AB3" t="n">
-        <v>1981.929811006357</v>
+        <v>2137.39850156791</v>
       </c>
       <c r="AC3" t="n">
-        <v>1792.77721149987</v>
+        <v>1933.408188435906</v>
       </c>
       <c r="AD3" t="n">
-        <v>1448520.615982249</v>
+        <v>1562147.043198572</v>
       </c>
       <c r="AE3" t="n">
-        <v>1981929.811006357</v>
+        <v>2137398.501567909</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.190076350710045e-07</v>
+        <v>1.562252071122599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1792777.21149987</v>
+        <v>1933408.188435906</v>
       </c>
     </row>
     <row r="4">
@@ -21927,28 +21927,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1244.035146205156</v>
+        <v>1347.32414809763</v>
       </c>
       <c r="AB4" t="n">
-        <v>1702.143769995101</v>
+        <v>1843.468339173544</v>
       </c>
       <c r="AC4" t="n">
-        <v>1539.693557560553</v>
+        <v>1667.530308206884</v>
       </c>
       <c r="AD4" t="n">
-        <v>1244035.146205157</v>
+        <v>1347324.14809763</v>
       </c>
       <c r="AE4" t="n">
-        <v>1702143.769995101</v>
+        <v>1843468.339173544</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.020596094270386e-06</v>
+        <v>1.734945718846347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.01157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>1539693.557560554</v>
+        <v>1667530.308206884</v>
       </c>
     </row>
     <row r="5">
@@ -22033,28 +22033,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1138.888082654691</v>
+        <v>1242.176995038612</v>
       </c>
       <c r="AB5" t="n">
-        <v>1558.276918884297</v>
+        <v>1699.601365593192</v>
       </c>
       <c r="AC5" t="n">
-        <v>1409.557156801371</v>
+        <v>1537.393796666476</v>
       </c>
       <c r="AD5" t="n">
-        <v>1138888.082654691</v>
+        <v>1242176.995038613</v>
       </c>
       <c r="AE5" t="n">
-        <v>1558276.918884297</v>
+        <v>1699601.365593192</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.076445924627523e-06</v>
+        <v>1.82988672892897e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.97376543209877</v>
       </c>
       <c r="AH5" t="n">
-        <v>1409557.156801371</v>
+        <v>1537393.796666476</v>
       </c>
     </row>
     <row r="6">
@@ -22139,28 +22139,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1093.661477971617</v>
+        <v>1186.613054540241</v>
       </c>
       <c r="AB6" t="n">
-        <v>1496.395883099936</v>
+        <v>1623.57633089527</v>
       </c>
       <c r="AC6" t="n">
-        <v>1353.58196022169</v>
+        <v>1468.624484578316</v>
       </c>
       <c r="AD6" t="n">
-        <v>1093661.477971617</v>
+        <v>1186613.054540241</v>
       </c>
       <c r="AE6" t="n">
-        <v>1496395.883099936</v>
+        <v>1623576.33089527</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.108949996513099e-06</v>
+        <v>1.885141496882269e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.41820987654321</v>
       </c>
       <c r="AH6" t="n">
-        <v>1353581.96022169</v>
+        <v>1468624.484578317</v>
       </c>
     </row>
     <row r="7">
@@ -22245,28 +22245,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1060.847715073771</v>
+        <v>1153.799291642395</v>
       </c>
       <c r="AB7" t="n">
-        <v>1451.498645062053</v>
+        <v>1578.679092857386</v>
       </c>
       <c r="AC7" t="n">
-        <v>1312.969651568473</v>
+        <v>1428.0121759251</v>
       </c>
       <c r="AD7" t="n">
-        <v>1060847.715073771</v>
+        <v>1153799.291642395</v>
       </c>
       <c r="AE7" t="n">
-        <v>1451498.645062053</v>
+        <v>1578679.092857386</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.133089828402061e-06</v>
+        <v>1.926177611192863e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.02469135802469</v>
       </c>
       <c r="AH7" t="n">
-        <v>1312969.651568473</v>
+        <v>1428012.1759251</v>
       </c>
     </row>
     <row r="8">
@@ -22351,28 +22351,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1028.0428898438</v>
+        <v>1121.079717758444</v>
       </c>
       <c r="AB8" t="n">
-        <v>1406.613635935659</v>
+        <v>1533.910728383642</v>
       </c>
       <c r="AC8" t="n">
-        <v>1272.368404716596</v>
+        <v>1387.516441323936</v>
       </c>
       <c r="AD8" t="n">
-        <v>1028042.8898438</v>
+        <v>1121079.717758444</v>
       </c>
       <c r="AE8" t="n">
-        <v>1406613.63593566</v>
+        <v>1533910.728383642</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.149447740800502e-06</v>
+        <v>1.953984978127015e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.7662037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1272368.404716596</v>
+        <v>1387516.441323936</v>
       </c>
     </row>
     <row r="9">
@@ -22457,28 +22457,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1009.483426506644</v>
+        <v>1102.520254421288</v>
       </c>
       <c r="AB9" t="n">
-        <v>1381.219759412026</v>
+        <v>1508.516851860009</v>
       </c>
       <c r="AC9" t="n">
-        <v>1249.39808412785</v>
+        <v>1364.546120735188</v>
       </c>
       <c r="AD9" t="n">
-        <v>1009483.426506644</v>
+        <v>1102520.254421288</v>
       </c>
       <c r="AE9" t="n">
-        <v>1381219.759412026</v>
+        <v>1508516.851860009</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.162629359529343e-06</v>
+        <v>1.97639285633609e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.56558641975309</v>
       </c>
       <c r="AH9" t="n">
-        <v>1249398.08412785</v>
+        <v>1364546.120735188</v>
       </c>
     </row>
     <row r="10">
@@ -22563,28 +22563,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>995.1270156963249</v>
+        <v>1087.993251410377</v>
       </c>
       <c r="AB10" t="n">
-        <v>1361.576684781204</v>
+        <v>1488.64036545434</v>
       </c>
       <c r="AC10" t="n">
-        <v>1231.629716970564</v>
+        <v>1346.566618295252</v>
       </c>
       <c r="AD10" t="n">
-        <v>995127.0156963249</v>
+        <v>1087993.251410377</v>
       </c>
       <c r="AE10" t="n">
-        <v>1361576.684781204</v>
+        <v>1488640.36545434</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.172211178765971e-06</v>
+        <v>1.992681313990076e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.42283950617284</v>
       </c>
       <c r="AH10" t="n">
-        <v>1231629.716970564</v>
+        <v>1346566.618295252</v>
       </c>
     </row>
     <row r="11">
@@ -22669,28 +22669,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>980.8629509052515</v>
+        <v>1073.729186619304</v>
       </c>
       <c r="AB11" t="n">
-        <v>1342.059962047932</v>
+        <v>1469.123642721067</v>
       </c>
       <c r="AC11" t="n">
-        <v>1213.975642863063</v>
+        <v>1328.912544187751</v>
       </c>
       <c r="AD11" t="n">
-        <v>980862.9509052515</v>
+        <v>1073729.186619304</v>
       </c>
       <c r="AE11" t="n">
-        <v>1342059.962047932</v>
+        <v>1469123.642721067</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.181634183319118e-06</v>
+        <v>2.008699797207807e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.28395061728395</v>
       </c>
       <c r="AH11" t="n">
-        <v>1213975.642863063</v>
+        <v>1328912.544187751</v>
       </c>
     </row>
     <row r="12">
@@ -22775,28 +22775,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>971.9015736118366</v>
+        <v>1064.767809325888</v>
       </c>
       <c r="AB12" t="n">
-        <v>1329.798610287017</v>
+        <v>1456.862290960153</v>
       </c>
       <c r="AC12" t="n">
-        <v>1202.884497305295</v>
+        <v>1317.821398629983</v>
       </c>
       <c r="AD12" t="n">
-        <v>971901.5736118366</v>
+        <v>1064767.809325889</v>
       </c>
       <c r="AE12" t="n">
-        <v>1329798.610287017</v>
+        <v>1456862.290960153</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.186504500279172e-06</v>
+        <v>2.016979013252926e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.21450617283951</v>
       </c>
       <c r="AH12" t="n">
-        <v>1202884.497305295</v>
+        <v>1317821.398629983</v>
       </c>
     </row>
     <row r="13">
@@ -22881,28 +22881,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>960.2198657758513</v>
+        <v>1042.919357875197</v>
       </c>
       <c r="AB13" t="n">
-        <v>1313.815182265245</v>
+        <v>1426.968275799667</v>
       </c>
       <c r="AC13" t="n">
-        <v>1188.426505221038</v>
+        <v>1290.7804263199</v>
       </c>
       <c r="AD13" t="n">
-        <v>960219.8657758513</v>
+        <v>1042919.357875197</v>
       </c>
       <c r="AE13" t="n">
-        <v>1313815.182265245</v>
+        <v>1426968.275799667</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.193757037491426e-06</v>
+        <v>2.029307845841855e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.11033950617284</v>
       </c>
       <c r="AH13" t="n">
-        <v>1188426.505221039</v>
+        <v>1290780.4263199</v>
       </c>
     </row>
     <row r="14">
@@ -22987,28 +22987,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>953.2369951748641</v>
+        <v>1035.93648727421</v>
       </c>
       <c r="AB14" t="n">
-        <v>1304.260910646465</v>
+        <v>1417.414004180887</v>
       </c>
       <c r="AC14" t="n">
-        <v>1179.784079876051</v>
+        <v>1282.138000974912</v>
       </c>
       <c r="AD14" t="n">
-        <v>953236.9951748641</v>
+        <v>1035936.48727421</v>
       </c>
       <c r="AE14" t="n">
-        <v>1304260.910646465</v>
+        <v>1417414.004180887</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.197303898755813e-06</v>
+        <v>2.035337274918192e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.05632716049383</v>
       </c>
       <c r="AH14" t="n">
-        <v>1179784.079876051</v>
+        <v>1282138.000974912</v>
       </c>
     </row>
     <row r="15">
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>944.7628293161899</v>
+        <v>1027.462321415536</v>
       </c>
       <c r="AB15" t="n">
-        <v>1292.666183064815</v>
+        <v>1405.819276599237</v>
       </c>
       <c r="AC15" t="n">
-        <v>1169.295936821491</v>
+        <v>1271.649857920352</v>
       </c>
       <c r="AD15" t="n">
-        <v>944762.82931619</v>
+        <v>1027462.321415536</v>
       </c>
       <c r="AE15" t="n">
-        <v>1292666.183064815</v>
+        <v>1405819.276599237</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.20069194533672e-06</v>
+        <v>2.041096729558276e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.01003086419753</v>
       </c>
       <c r="AH15" t="n">
-        <v>1169295.936821491</v>
+        <v>1271649.857920352</v>
       </c>
     </row>
     <row r="16">
@@ -23199,28 +23199,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>926.2424447746531</v>
+        <v>1019.193931834726</v>
       </c>
       <c r="AB16" t="n">
-        <v>1267.325775873383</v>
+        <v>1394.506101199169</v>
       </c>
       <c r="AC16" t="n">
-        <v>1146.373982526924</v>
+        <v>1261.416396102325</v>
       </c>
       <c r="AD16" t="n">
-        <v>926242.4447746531</v>
+        <v>1019193.931834726</v>
       </c>
       <c r="AE16" t="n">
-        <v>1267325.775873383</v>
+        <v>1394506.101199169</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.204132930145453e-06</v>
+        <v>2.04694617567711e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.95987654320988</v>
       </c>
       <c r="AH16" t="n">
-        <v>1146373.982526924</v>
+        <v>1261416.396102325</v>
       </c>
     </row>
     <row r="17">
@@ -23305,28 +23305,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>919.6835737755541</v>
+        <v>1012.635060835627</v>
       </c>
       <c r="AB17" t="n">
-        <v>1258.351639215449</v>
+        <v>1385.531964541235</v>
       </c>
       <c r="AC17" t="n">
-        <v>1138.256324876344</v>
+        <v>1253.298738451744</v>
       </c>
       <c r="AD17" t="n">
-        <v>919683.5737755541</v>
+        <v>1012635.060835627</v>
       </c>
       <c r="AE17" t="n">
-        <v>1258351.639215449</v>
+        <v>1385531.964541235</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.20783860609332e-06</v>
+        <v>2.053245579189701e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.90972222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>1138256.324876344</v>
+        <v>1253298.738451744</v>
       </c>
     </row>
     <row r="18">
@@ -23411,28 +23411,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>909.8883775590162</v>
+        <v>1002.839864619089</v>
       </c>
       <c r="AB18" t="n">
-        <v>1244.949419618423</v>
+        <v>1372.129744944209</v>
       </c>
       <c r="AC18" t="n">
-        <v>1126.133194307525</v>
+        <v>1241.175607882925</v>
       </c>
       <c r="AD18" t="n">
-        <v>909888.3775590162</v>
+        <v>1002839.864619089</v>
       </c>
       <c r="AE18" t="n">
-        <v>1244949.419618424</v>
+        <v>1372129.744944209</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.212338355458587e-06</v>
+        <v>2.060894854883562e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.84799382716049</v>
       </c>
       <c r="AH18" t="n">
-        <v>1126133.194307525</v>
+        <v>1241175.607882925</v>
       </c>
     </row>
     <row r="19">
@@ -23517,28 +23517,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>904.6622426672345</v>
+        <v>997.613729727307</v>
       </c>
       <c r="AB19" t="n">
-        <v>1237.798791298688</v>
+        <v>1364.979116624474</v>
       </c>
       <c r="AC19" t="n">
-        <v>1119.665011918656</v>
+        <v>1234.707425494056</v>
       </c>
       <c r="AD19" t="n">
-        <v>904662.2426672345</v>
+        <v>997613.729727307</v>
       </c>
       <c r="AE19" t="n">
-        <v>1237798.791298688</v>
+        <v>1364979.116624474</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.213926502293387e-06</v>
+        <v>2.063594599246101e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.82484567901234</v>
       </c>
       <c r="AH19" t="n">
-        <v>1119665.011918656</v>
+        <v>1234707.425494056</v>
       </c>
     </row>
     <row r="20">
@@ -23623,28 +23623,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>898.450949856979</v>
+        <v>991.4024369170515</v>
       </c>
       <c r="AB20" t="n">
-        <v>1229.300226452798</v>
+        <v>1356.480551778583</v>
       </c>
       <c r="AC20" t="n">
-        <v>1111.977538173846</v>
+        <v>1227.019951749246</v>
       </c>
       <c r="AD20" t="n">
-        <v>898450.9498569791</v>
+        <v>991402.4369170516</v>
       </c>
       <c r="AE20" t="n">
-        <v>1229300.226452798</v>
+        <v>1356480.551778583</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.215673463811668e-06</v>
+        <v>2.066564318044894e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.8016975308642</v>
       </c>
       <c r="AH20" t="n">
-        <v>1111977.538173846</v>
+        <v>1227019.951749246</v>
       </c>
     </row>
     <row r="21">
@@ -23729,28 +23729,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>890.7728364604549</v>
+        <v>983.7243235205275</v>
       </c>
       <c r="AB21" t="n">
-        <v>1218.794692969217</v>
+        <v>1345.975018295003</v>
       </c>
       <c r="AC21" t="n">
-        <v>1102.47463806133</v>
+        <v>1217.51705163673</v>
       </c>
       <c r="AD21" t="n">
-        <v>890772.8364604549</v>
+        <v>983724.3235205275</v>
       </c>
       <c r="AE21" t="n">
-        <v>1218794.692969217</v>
+        <v>1345975.018295003</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.217367487102121e-06</v>
+        <v>2.069444045364936e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.77854938271605</v>
       </c>
       <c r="AH21" t="n">
-        <v>1102474.63806133</v>
+        <v>1217517.05163673</v>
       </c>
     </row>
     <row r="22">
@@ -23835,28 +23835,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>885.2901989225985</v>
+        <v>978.2416859826711</v>
       </c>
       <c r="AB22" t="n">
-        <v>1211.293106413025</v>
+        <v>1338.47343173881</v>
       </c>
       <c r="AC22" t="n">
-        <v>1095.688992397517</v>
+        <v>1210.731405972917</v>
       </c>
       <c r="AD22" t="n">
-        <v>885290.1989225985</v>
+        <v>978241.6859826711</v>
       </c>
       <c r="AE22" t="n">
-        <v>1211293.106413025</v>
+        <v>1338473.43173881</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.219061510392574e-06</v>
+        <v>2.072323772684977e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.7554012345679</v>
       </c>
       <c r="AH22" t="n">
-        <v>1095688.992397517</v>
+        <v>1210731.405972917</v>
       </c>
     </row>
     <row r="23">
@@ -23941,28 +23941,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>878.2596451900413</v>
+        <v>971.2111322501138</v>
       </c>
       <c r="AB23" t="n">
-        <v>1201.67359263</v>
+        <v>1328.853917955785</v>
       </c>
       <c r="AC23" t="n">
-        <v>1086.987551508872</v>
+        <v>1202.029965084272</v>
       </c>
       <c r="AD23" t="n">
-        <v>878259.6451900413</v>
+        <v>971211.1322501138</v>
       </c>
       <c r="AE23" t="n">
-        <v>1201673.59263</v>
+        <v>1328853.917955785</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.221126101277815e-06</v>
+        <v>2.075833440356278e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.72453703703704</v>
       </c>
       <c r="AH23" t="n">
-        <v>1086987.551508872</v>
+        <v>1202029.965084272</v>
       </c>
     </row>
     <row r="24">
@@ -24047,28 +24047,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>872.2538219407536</v>
+        <v>965.2053090008263</v>
       </c>
       <c r="AB24" t="n">
-        <v>1193.456160302102</v>
+        <v>1320.636485627888</v>
       </c>
       <c r="AC24" t="n">
-        <v>1079.55437938911</v>
+        <v>1194.59679296451</v>
       </c>
       <c r="AD24" t="n">
-        <v>872253.8219407536</v>
+        <v>965205.3090008263</v>
       </c>
       <c r="AE24" t="n">
-        <v>1193456.160302103</v>
+        <v>1320636.485627888</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.223084815707401e-06</v>
+        <v>2.079163125070076e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.69753086419753</v>
       </c>
       <c r="AH24" t="n">
-        <v>1079554.37938911</v>
+        <v>1194596.79296451</v>
       </c>
     </row>
     <row r="25">
@@ -24153,28 +24153,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>867.5945811088469</v>
+        <v>960.5460681689194</v>
       </c>
       <c r="AB25" t="n">
-        <v>1187.081181444689</v>
+        <v>1314.261506770474</v>
       </c>
       <c r="AC25" t="n">
-        <v>1073.787819566509</v>
+        <v>1188.83023314191</v>
       </c>
       <c r="AD25" t="n">
-        <v>867594.5811088469</v>
+        <v>960546.0681689194</v>
       </c>
       <c r="AE25" t="n">
-        <v>1187081.181444689</v>
+        <v>1314261.506770474</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.225043530136988e-06</v>
+        <v>2.082492809783874e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.67052469135803</v>
       </c>
       <c r="AH25" t="n">
-        <v>1073787.819566509</v>
+        <v>1188830.23314191</v>
       </c>
     </row>
     <row r="26">
@@ -24259,28 +24259,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>870.3305543985703</v>
+        <v>963.282041458643</v>
       </c>
       <c r="AB26" t="n">
-        <v>1190.824660802311</v>
+        <v>1318.004986128097</v>
       </c>
       <c r="AC26" t="n">
-        <v>1077.174026508247</v>
+        <v>1192.216440083647</v>
       </c>
       <c r="AD26" t="n">
-        <v>870330.5543985702</v>
+        <v>963282.041458643</v>
       </c>
       <c r="AE26" t="n">
-        <v>1190824.660802311</v>
+        <v>1318004.986128097</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.224620024314375e-06</v>
+        <v>2.081772877953864e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH26" t="n">
-        <v>1077174.026508247</v>
+        <v>1192216.440083647</v>
       </c>
     </row>
     <row r="27">
@@ -24365,28 +24365,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>873.3443814960709</v>
+        <v>966.2958685561435</v>
       </c>
       <c r="AB27" t="n">
-        <v>1194.948311997779</v>
+        <v>1322.128637323565</v>
       </c>
       <c r="AC27" t="n">
-        <v>1080.9041222212</v>
+        <v>1195.9465357966</v>
       </c>
       <c r="AD27" t="n">
-        <v>873344.3814960709</v>
+        <v>966295.8685561436</v>
       </c>
       <c r="AE27" t="n">
-        <v>1194948.311997779</v>
+        <v>1322128.637323565</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.224725900770028e-06</v>
+        <v>2.081952860911366e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.67438271604938</v>
       </c>
       <c r="AH27" t="n">
-        <v>1080904.1222212</v>
+        <v>1195946.5357966</v>
       </c>
     </row>
   </sheetData>
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1299.870350349064</v>
+        <v>1424.605571334923</v>
       </c>
       <c r="AB2" t="n">
-        <v>1778.539959580153</v>
+        <v>1949.208191862578</v>
       </c>
       <c r="AC2" t="n">
-        <v>1608.798602034334</v>
+        <v>1763.178497762092</v>
       </c>
       <c r="AD2" t="n">
-        <v>1299870.350349064</v>
+        <v>1424605.571334923</v>
       </c>
       <c r="AE2" t="n">
-        <v>1778539.959580153</v>
+        <v>1949208.191862578</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.277912481648099e-07</v>
+        <v>1.67302717290874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.81558641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>1608798.602034334</v>
+        <v>1763178.497762092</v>
       </c>
     </row>
     <row r="3">
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>949.230804505958</v>
+        <v>1045.141675916906</v>
       </c>
       <c r="AB3" t="n">
-        <v>1298.779463832609</v>
+        <v>1430.008949386085</v>
       </c>
       <c r="AC3" t="n">
-        <v>1174.82577465285</v>
+        <v>1293.530902286842</v>
       </c>
       <c r="AD3" t="n">
-        <v>949230.804505958</v>
+        <v>1045141.675916906</v>
       </c>
       <c r="AE3" t="n">
-        <v>1298779.463832609</v>
+        <v>1430008.949386085</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.136887905390101e-06</v>
+        <v>2.050077926506876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.43672839506173</v>
       </c>
       <c r="AH3" t="n">
-        <v>1174825.77465285</v>
+        <v>1293530.902286842</v>
       </c>
     </row>
     <row r="4">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>857.0211520747682</v>
+        <v>943.4092179791336</v>
       </c>
       <c r="AB4" t="n">
-        <v>1172.614149373495</v>
+        <v>1290.814112316337</v>
       </c>
       <c r="AC4" t="n">
-        <v>1060.701500731584</v>
+        <v>1167.62062510585</v>
       </c>
       <c r="AD4" t="n">
-        <v>857021.1520747682</v>
+        <v>943409.2179791336</v>
       </c>
       <c r="AE4" t="n">
-        <v>1172614.149373495</v>
+        <v>1290814.112316337</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.212142084407913e-06</v>
+        <v>2.185779019420585e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1060701.500731583</v>
+        <v>1167620.62510585</v>
       </c>
     </row>
     <row r="5">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>805.2597517413719</v>
+        <v>891.7330689917577</v>
       </c>
       <c r="AB5" t="n">
-        <v>1101.791917885525</v>
+        <v>1220.108525481015</v>
       </c>
       <c r="AC5" t="n">
-        <v>996.6384436171984</v>
+        <v>1103.663080242177</v>
       </c>
       <c r="AD5" t="n">
-        <v>805259.7517413719</v>
+        <v>891733.0689917577</v>
       </c>
       <c r="AE5" t="n">
-        <v>1101791.917885525</v>
+        <v>1220108.525481015</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.251773661181373e-06</v>
+        <v>2.25724413075718e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.65046296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>996638.4436171984</v>
+        <v>1103663.080242177</v>
       </c>
     </row>
     <row r="6">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>777.4986913197181</v>
+        <v>863.801416369512</v>
       </c>
       <c r="AB6" t="n">
-        <v>1063.80801028507</v>
+        <v>1181.891206105713</v>
       </c>
       <c r="AC6" t="n">
-        <v>962.2796668473816</v>
+        <v>1069.093168189709</v>
       </c>
       <c r="AD6" t="n">
-        <v>777498.6913197181</v>
+        <v>863801.416369512</v>
       </c>
       <c r="AE6" t="n">
-        <v>1063808.01028507</v>
+        <v>1181891.206105713</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.276285676873629e-06</v>
+        <v>2.3014450955723e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.31095679012346</v>
       </c>
       <c r="AH6" t="n">
-        <v>962279.6668473816</v>
+        <v>1069093.168189709</v>
       </c>
     </row>
     <row r="7">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>757.4256896790622</v>
+        <v>834.2909500768452</v>
       </c>
       <c r="AB7" t="n">
-        <v>1036.343243881991</v>
+        <v>1141.513684214198</v>
       </c>
       <c r="AC7" t="n">
-        <v>937.4360992027715</v>
+        <v>1032.569220317313</v>
       </c>
       <c r="AD7" t="n">
-        <v>757425.6896790622</v>
+        <v>834290.9500768452</v>
       </c>
       <c r="AE7" t="n">
-        <v>1036343.243881991</v>
+        <v>1141513.684214198</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.291806135407744e-06</v>
+        <v>2.329432155069724e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.10262345679012</v>
       </c>
       <c r="AH7" t="n">
-        <v>937436.0992027716</v>
+        <v>1032569.220317313</v>
       </c>
     </row>
     <row r="8">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>729.6698345125407</v>
+        <v>816.0578109083548</v>
       </c>
       <c r="AB8" t="n">
-        <v>998.3664583412475</v>
+        <v>1116.56629881454</v>
       </c>
       <c r="AC8" t="n">
-        <v>903.083764773283</v>
+        <v>1010.002778366323</v>
       </c>
       <c r="AD8" t="n">
-        <v>729669.8345125406</v>
+        <v>816057.8109083548</v>
       </c>
       <c r="AE8" t="n">
-        <v>998366.4583412475</v>
+        <v>1116566.29881454</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.304921209224394e-06</v>
+        <v>2.353081736711458e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>903083.7647732829</v>
+        <v>1010002.778366323</v>
       </c>
     </row>
     <row r="9">
@@ -25404,28 +25404,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>715.6681825619994</v>
+        <v>802.0561589578138</v>
       </c>
       <c r="AB9" t="n">
-        <v>979.2087804332288</v>
+        <v>1097.408620906521</v>
       </c>
       <c r="AC9" t="n">
-        <v>885.7544687568356</v>
+        <v>992.6734823498755</v>
       </c>
       <c r="AD9" t="n">
-        <v>715668.1825619994</v>
+        <v>802056.1589578138</v>
       </c>
       <c r="AE9" t="n">
-        <v>979208.7804332287</v>
+        <v>1097408.620906522</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.31185100805328e-06</v>
+        <v>2.365577803867135e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.84413580246914</v>
       </c>
       <c r="AH9" t="n">
-        <v>885754.4687568357</v>
+        <v>992673.4823498755</v>
       </c>
     </row>
     <row r="10">
@@ -25510,28 +25510,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>700.6705313960094</v>
+        <v>787.0585077918236</v>
       </c>
       <c r="AB10" t="n">
-        <v>958.6883324582485</v>
+        <v>1076.888172931541</v>
       </c>
       <c r="AC10" t="n">
-        <v>867.1924635359578</v>
+        <v>974.1114771289978</v>
       </c>
       <c r="AD10" t="n">
-        <v>700670.5313960095</v>
+        <v>787058.5077918236</v>
       </c>
       <c r="AE10" t="n">
-        <v>958688.3324582485</v>
+        <v>1076888.172931541</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.320498938823211e-06</v>
+        <v>2.381172069491161e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.73225308641975</v>
       </c>
       <c r="AH10" t="n">
-        <v>867192.4635359579</v>
+        <v>974111.4771289978</v>
       </c>
     </row>
     <row r="11">
@@ -25616,28 +25616,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>689.3030238011007</v>
+        <v>775.6910001969148</v>
       </c>
       <c r="AB11" t="n">
-        <v>943.1348070678536</v>
+        <v>1061.334647541147</v>
       </c>
       <c r="AC11" t="n">
-        <v>853.1233447793121</v>
+        <v>960.0423583723521</v>
       </c>
       <c r="AD11" t="n">
-        <v>689303.0238011007</v>
+        <v>775691.0001969149</v>
       </c>
       <c r="AE11" t="n">
-        <v>943134.8070678535</v>
+        <v>1061334.647541146</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.324794268675826e-06</v>
+        <v>2.388917565662035e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>853123.3447793121</v>
+        <v>960042.3583723521</v>
       </c>
     </row>
     <row r="12">
@@ -25722,28 +25722,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>688.4253095957877</v>
+        <v>774.813285991602</v>
       </c>
       <c r="AB12" t="n">
-        <v>941.9338797701264</v>
+        <v>1060.133720243419</v>
       </c>
       <c r="AC12" t="n">
-        <v>852.0370322973681</v>
+        <v>958.9560458904081</v>
       </c>
       <c r="AD12" t="n">
-        <v>688425.3095957877</v>
+        <v>774813.285991602</v>
       </c>
       <c r="AE12" t="n">
-        <v>941933.8797701264</v>
+        <v>1060133.72024342</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.325882418905155e-06</v>
+        <v>2.390879758025323e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.66280864197531</v>
       </c>
       <c r="AH12" t="n">
-        <v>852037.0322973682</v>
+        <v>958956.0458904081</v>
       </c>
     </row>
   </sheetData>
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>993.9574608249432</v>
+        <v>1095.726386319182</v>
       </c>
       <c r="AB2" t="n">
-        <v>1359.97644820906</v>
+        <v>1499.221181798401</v>
       </c>
       <c r="AC2" t="n">
-        <v>1230.18220473092</v>
+        <v>1356.137616377705</v>
       </c>
       <c r="AD2" t="n">
-        <v>993957.4608249431</v>
+        <v>1095726.386319182</v>
       </c>
       <c r="AE2" t="n">
-        <v>1359976.44820906</v>
+        <v>1499221.181798401</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.063274994920217e-06</v>
+        <v>1.983731272390619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.64737654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>1230182.20473092</v>
+        <v>1356137.616377705</v>
       </c>
     </row>
     <row r="3">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>772.2597787048124</v>
+        <v>864.691642845003</v>
       </c>
       <c r="AB3" t="n">
-        <v>1056.639898920843</v>
+        <v>1183.109253243501</v>
       </c>
       <c r="AC3" t="n">
-        <v>955.795669971249</v>
+        <v>1070.194966618206</v>
       </c>
       <c r="AD3" t="n">
-        <v>772259.7787048124</v>
+        <v>864691.6428450031</v>
       </c>
       <c r="AE3" t="n">
-        <v>1056639.898920843</v>
+        <v>1183109.253243501</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243321223651026e-06</v>
+        <v>2.319639984732811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.5108024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>955795.6699712491</v>
+        <v>1070194.966618206</v>
       </c>
     </row>
     <row r="4">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>703.8718085266444</v>
+        <v>787.1372930219306</v>
       </c>
       <c r="AB4" t="n">
-        <v>963.0684610587631</v>
+        <v>1076.995970359133</v>
       </c>
       <c r="AC4" t="n">
-        <v>871.1545588103882</v>
+        <v>974.2089865213944</v>
       </c>
       <c r="AD4" t="n">
-        <v>703871.8085266444</v>
+        <v>787137.2930219306</v>
       </c>
       <c r="AE4" t="n">
-        <v>963068.4610587631</v>
+        <v>1076995.970359133</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.307393340833561e-06</v>
+        <v>2.439178075208461e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>871154.5588103882</v>
+        <v>974208.9865213945</v>
       </c>
     </row>
     <row r="5">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>670.8545529668879</v>
+        <v>753.949445261582</v>
       </c>
       <c r="AB5" t="n">
-        <v>917.892795383392</v>
+        <v>1031.586892908915</v>
       </c>
       <c r="AC5" t="n">
-        <v>830.2903952626298</v>
+        <v>933.1336876909849</v>
       </c>
       <c r="AD5" t="n">
-        <v>670854.5529668879</v>
+        <v>753949.445261582</v>
       </c>
       <c r="AE5" t="n">
-        <v>917892.795383392</v>
+        <v>1031586.892908915</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.340145289002287e-06</v>
+        <v>2.500282741568919e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.17592592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>830290.3952626297</v>
+        <v>933133.6876909848</v>
       </c>
     </row>
     <row r="6">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>637.4908671888558</v>
+        <v>720.6710108295704</v>
       </c>
       <c r="AB6" t="n">
-        <v>872.2431285999534</v>
+        <v>986.0538707781255</v>
       </c>
       <c r="AC6" t="n">
-        <v>788.9974686072928</v>
+        <v>891.9462732863602</v>
       </c>
       <c r="AD6" t="n">
-        <v>637490.8671888558</v>
+        <v>720671.0108295704</v>
       </c>
       <c r="AE6" t="n">
-        <v>872243.1285999534</v>
+        <v>986053.8707781256</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.359414650128878e-06</v>
+        <v>2.536233210119791e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.92901234567901</v>
       </c>
       <c r="AH6" t="n">
-        <v>788997.4686072929</v>
+        <v>891946.2732863602</v>
       </c>
     </row>
     <row r="7">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>618.3504796512624</v>
+        <v>701.530623291977</v>
       </c>
       <c r="AB7" t="n">
-        <v>846.0544059567156</v>
+        <v>959.8651481348878</v>
       </c>
       <c r="AC7" t="n">
-        <v>765.3081608970227</v>
+        <v>868.25696557609</v>
       </c>
       <c r="AD7" t="n">
-        <v>618350.4796512624</v>
+        <v>701530.623291977</v>
       </c>
       <c r="AE7" t="n">
-        <v>846054.4059567157</v>
+        <v>959865.1481348878</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.371883060269613e-06</v>
+        <v>2.559495278005648e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.77469135802469</v>
       </c>
       <c r="AH7" t="n">
-        <v>765308.1608970227</v>
+        <v>868256.96557609</v>
       </c>
     </row>
     <row r="8">
@@ -26655,28 +26655,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>612.9946096177803</v>
+        <v>696.1747532584949</v>
       </c>
       <c r="AB8" t="n">
-        <v>838.7262682925958</v>
+        <v>952.537010470768</v>
       </c>
       <c r="AC8" t="n">
-        <v>758.6794104064605</v>
+        <v>861.6282150855277</v>
       </c>
       <c r="AD8" t="n">
-        <v>612994.6096177803</v>
+        <v>696174.7532584949</v>
       </c>
       <c r="AE8" t="n">
-        <v>838726.2682925959</v>
+        <v>952537.010470768</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.375164220832964e-06</v>
+        <v>2.565616874817716e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.73611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>758679.4104064605</v>
+        <v>861628.2150855277</v>
       </c>
     </row>
   </sheetData>
@@ -50125,28 +50125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>802.3937077156017</v>
+        <v>891.976682834508</v>
       </c>
       <c r="AB2" t="n">
-        <v>1097.870470008527</v>
+        <v>1220.44184868815</v>
       </c>
       <c r="AC2" t="n">
-        <v>993.0912532217951</v>
+        <v>1103.964591550245</v>
       </c>
       <c r="AD2" t="n">
-        <v>802393.7077156018</v>
+        <v>891976.682834508</v>
       </c>
       <c r="AE2" t="n">
-        <v>1097870.470008527</v>
+        <v>1220441.848688151</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.175383905551146e-06</v>
+        <v>2.260306837850571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.25462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>993091.2532217951</v>
+        <v>1103964.591550245</v>
       </c>
     </row>
     <row r="3">
@@ -50231,28 +50231,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.3945781025355</v>
+        <v>732.8921228583192</v>
       </c>
       <c r="AB3" t="n">
-        <v>880.3208463253936</v>
+        <v>1002.775335413271</v>
       </c>
       <c r="AC3" t="n">
-        <v>796.3042602901652</v>
+        <v>907.0718648054502</v>
       </c>
       <c r="AD3" t="n">
-        <v>643394.5781025356</v>
+        <v>732892.1228583192</v>
       </c>
       <c r="AE3" t="n">
-        <v>880320.8463253936</v>
+        <v>1002775.335413271</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.330530137755052e-06</v>
+        <v>2.558658795760701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.89351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>796304.2602901652</v>
+        <v>907071.8648054502</v>
       </c>
     </row>
     <row r="4">
@@ -50337,28 +50337,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>597.1078312606824</v>
+        <v>677.6386428785243</v>
       </c>
       <c r="AB4" t="n">
-        <v>816.9892772692184</v>
+        <v>927.1750864934166</v>
       </c>
       <c r="AC4" t="n">
-        <v>739.0169672982958</v>
+        <v>838.6867975368912</v>
       </c>
       <c r="AD4" t="n">
-        <v>597107.8312606823</v>
+        <v>677638.6428785243</v>
       </c>
       <c r="AE4" t="n">
-        <v>816989.2772692183</v>
+        <v>927175.0864934167</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.383911796806913e-06</v>
+        <v>2.661313705701935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.20293209876543</v>
       </c>
       <c r="AH4" t="n">
-        <v>739016.9672982957</v>
+        <v>838686.7975368912</v>
       </c>
     </row>
     <row r="5">
@@ -50443,28 +50443,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>558.1800393781999</v>
+        <v>638.7961023420627</v>
       </c>
       <c r="AB5" t="n">
-        <v>763.7265550426342</v>
+        <v>874.0290089194817</v>
       </c>
       <c r="AC5" t="n">
-        <v>690.8375645263167</v>
+        <v>790.6129070156243</v>
       </c>
       <c r="AD5" t="n">
-        <v>558180.0393782</v>
+        <v>638796.1023420626</v>
       </c>
       <c r="AE5" t="n">
-        <v>763726.5550426343</v>
+        <v>874029.0089194818</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.411806027895284e-06</v>
+        <v>2.714955346503597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.86342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>690837.5645263167</v>
+        <v>790612.9070156242</v>
       </c>
     </row>
     <row r="6">
@@ -50549,28 +50549,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>557.3826194480986</v>
+        <v>637.9986824119612</v>
       </c>
       <c r="AB6" t="n">
-        <v>762.6354899145853</v>
+        <v>872.9379437914328</v>
       </c>
       <c r="AC6" t="n">
-        <v>689.8506291227691</v>
+        <v>789.6259716120768</v>
       </c>
       <c r="AD6" t="n">
-        <v>557382.6194480986</v>
+        <v>637998.6824119613</v>
       </c>
       <c r="AE6" t="n">
-        <v>762635.4899145853</v>
+        <v>872937.9437914328</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.413595702013785e-06</v>
+        <v>2.718396956201048e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.84413580246914</v>
       </c>
       <c r="AH6" t="n">
-        <v>689850.6291227691</v>
+        <v>789625.9716120767</v>
       </c>
     </row>
   </sheetData>
@@ -50846,28 +50846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.8640097166634</v>
+        <v>568.3973591215666</v>
       </c>
       <c r="AB2" t="n">
-        <v>674.3582817198604</v>
+        <v>777.7063426718428</v>
       </c>
       <c r="AC2" t="n">
-        <v>609.9984737803089</v>
+        <v>703.4831408449488</v>
       </c>
       <c r="AD2" t="n">
-        <v>492864.0097166634</v>
+        <v>568397.3591215666</v>
       </c>
       <c r="AE2" t="n">
-        <v>674358.2817198604</v>
+        <v>777706.3426718428</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410843158612493e-06</v>
+        <v>2.910004141503396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.11342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>609998.473780309</v>
+        <v>703483.1408449488</v>
       </c>
     </row>
     <row r="3">
@@ -50952,28 +50952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.3719066850448</v>
+        <v>526.8199152353765</v>
       </c>
       <c r="AB3" t="n">
-        <v>617.5869558496047</v>
+        <v>720.8182496793894</v>
       </c>
       <c r="AC3" t="n">
-        <v>558.6453235720541</v>
+        <v>652.0243676047551</v>
       </c>
       <c r="AD3" t="n">
-        <v>451371.9066850449</v>
+        <v>526819.9152353765</v>
       </c>
       <c r="AE3" t="n">
-        <v>617586.9558496047</v>
+        <v>720818.2496793894</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.468866567389232e-06</v>
+        <v>3.029683185069451e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.39583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>558645.323572054</v>
+        <v>652024.3676047551</v>
       </c>
     </row>
   </sheetData>
@@ -51249,28 +51249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1652.844879013771</v>
+        <v>1781.592565280187</v>
       </c>
       <c r="AB2" t="n">
-        <v>2261.495281836384</v>
+        <v>2437.653546133141</v>
       </c>
       <c r="AC2" t="n">
-        <v>2045.661346166482</v>
+        <v>2205.007312958433</v>
       </c>
       <c r="AD2" t="n">
-        <v>1652844.879013771</v>
+        <v>1781592.565280187</v>
       </c>
       <c r="AE2" t="n">
-        <v>2261495.281836384</v>
+        <v>2437653.546133141</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.159404301230051e-07</v>
+        <v>1.433575148691026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.19212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2045661.346166482</v>
+        <v>2205007.312958433</v>
       </c>
     </row>
     <row r="3">
@@ -51355,28 +51355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1125.946310046018</v>
+        <v>1224.963318401871</v>
       </c>
       <c r="AB3" t="n">
-        <v>1540.569414650399</v>
+        <v>1676.048853804986</v>
       </c>
       <c r="AC3" t="n">
-        <v>1393.539631918918</v>
+        <v>1516.089103547178</v>
       </c>
       <c r="AD3" t="n">
-        <v>1125946.310046018</v>
+        <v>1224963.318401871</v>
       </c>
       <c r="AE3" t="n">
-        <v>1540569.414650399</v>
+        <v>1676048.853804986</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.047428214066253e-06</v>
+        <v>1.840290053401127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.4050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1393539.631918918</v>
+        <v>1516089.103547178</v>
       </c>
     </row>
     <row r="4">
@@ -51461,28 +51461,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>991.5210504894754</v>
+        <v>1090.537969336778</v>
       </c>
       <c r="AB4" t="n">
-        <v>1356.642844101235</v>
+        <v>1492.122160786273</v>
       </c>
       <c r="AC4" t="n">
-        <v>1227.166755120403</v>
+        <v>1349.716115967436</v>
       </c>
       <c r="AD4" t="n">
-        <v>991521.0504894755</v>
+        <v>1090537.969336778</v>
       </c>
       <c r="AE4" t="n">
-        <v>1356642.844101235</v>
+        <v>1492122.160786273</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.134007636488673e-06</v>
+        <v>1.992406683231682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.84645061728395</v>
       </c>
       <c r="AH4" t="n">
-        <v>1227166.755120403</v>
+        <v>1349716.115967436</v>
       </c>
     </row>
     <row r="5">
@@ -51567,28 +51567,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>937.3912411978373</v>
+        <v>1026.498023583503</v>
       </c>
       <c r="AB5" t="n">
-        <v>1282.580050989769</v>
+        <v>1404.499881763632</v>
       </c>
       <c r="AC5" t="n">
-        <v>1160.172411035712</v>
+        <v>1270.456384276075</v>
       </c>
       <c r="AD5" t="n">
-        <v>937391.2411978373</v>
+        <v>1026498.023583503</v>
       </c>
       <c r="AE5" t="n">
-        <v>1282580.050989769</v>
+        <v>1404499.881763632</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.179540768434438e-06</v>
+        <v>2.072406599879613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.11728395061728</v>
       </c>
       <c r="AH5" t="n">
-        <v>1160172.411035712</v>
+        <v>1270456.384276075</v>
       </c>
     </row>
     <row r="6">
@@ -51673,28 +51673,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>894.9100040531847</v>
+        <v>984.1020377848713</v>
       </c>
       <c r="AB6" t="n">
-        <v>1224.455348188543</v>
+        <v>1346.491823615055</v>
       </c>
       <c r="AC6" t="n">
-        <v>1107.595048291302</v>
+        <v>1217.984533782377</v>
       </c>
       <c r="AD6" t="n">
-        <v>894910.0040531848</v>
+        <v>984102.0377848713</v>
       </c>
       <c r="AE6" t="n">
-        <v>1224455.348188543</v>
+        <v>1346491.823615055</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.206738782771871e-06</v>
+        <v>2.120192438169314e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1107595.048291302</v>
+        <v>1217984.533782377</v>
       </c>
     </row>
     <row r="7">
@@ -51779,28 +51779,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>870.6171901421993</v>
+        <v>959.6386316732935</v>
       </c>
       <c r="AB7" t="n">
-        <v>1191.216848472221</v>
+        <v>1313.019912123886</v>
       </c>
       <c r="AC7" t="n">
-        <v>1077.528784337379</v>
+        <v>1187.707134545803</v>
       </c>
       <c r="AD7" t="n">
-        <v>870617.1901421993</v>
+        <v>959638.6316732935</v>
       </c>
       <c r="AE7" t="n">
-        <v>1191216.848472221</v>
+        <v>1313019.912123886</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.226624907307795e-06</v>
+        <v>2.155131574515551e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.42283950617284</v>
       </c>
       <c r="AH7" t="n">
-        <v>1077528.784337379</v>
+        <v>1187707.134545803</v>
       </c>
     </row>
     <row r="8">
@@ -51885,28 +51885,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>853.3159302477595</v>
+        <v>942.3373717788537</v>
       </c>
       <c r="AB8" t="n">
-        <v>1167.544501406932</v>
+        <v>1289.347565058597</v>
       </c>
       <c r="AC8" t="n">
-        <v>1056.115692851653</v>
+        <v>1166.294043060077</v>
       </c>
       <c r="AD8" t="n">
-        <v>853315.9302477596</v>
+        <v>942337.3717788537</v>
       </c>
       <c r="AE8" t="n">
-        <v>1167544.501406932</v>
+        <v>1289347.565058597</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239143748937653e-06</v>
+        <v>2.177126685418754e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.24537037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1056115.692851653</v>
+        <v>1166294.043060077</v>
       </c>
     </row>
     <row r="9">
@@ -51991,28 +51991,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>837.0698109535864</v>
+        <v>916.3517082236365</v>
       </c>
       <c r="AB9" t="n">
-        <v>1145.315844260445</v>
+        <v>1253.792833775782</v>
       </c>
       <c r="AC9" t="n">
-        <v>1036.00850754511</v>
+        <v>1134.132605429515</v>
       </c>
       <c r="AD9" t="n">
-        <v>837069.8109535864</v>
+        <v>916351.7082236365</v>
       </c>
       <c r="AE9" t="n">
-        <v>1145315.844260445</v>
+        <v>1253792.833775782</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.25094248020827e-06</v>
+        <v>2.197856590827525e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1036008.507545111</v>
+        <v>1134132.605429515</v>
       </c>
     </row>
     <row r="10">
@@ -52097,28 +52097,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>814.2357867701968</v>
+        <v>903.3424796473116</v>
       </c>
       <c r="AB10" t="n">
-        <v>1114.073325006681</v>
+        <v>1235.993033310995</v>
       </c>
       <c r="AC10" t="n">
-        <v>1007.747730479774</v>
+        <v>1118.03159293891</v>
       </c>
       <c r="AD10" t="n">
-        <v>814235.7867701967</v>
+        <v>903342.4796473116</v>
       </c>
       <c r="AE10" t="n">
-        <v>1114073.325006681</v>
+        <v>1235993.033310995</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.25825437000978e-06</v>
+        <v>2.210703292770988e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.98302469135803</v>
       </c>
       <c r="AH10" t="n">
-        <v>1007747.730479774</v>
+        <v>1118031.59293891</v>
       </c>
     </row>
     <row r="11">
@@ -52203,28 +52203,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>801.408138103161</v>
+        <v>890.5148309802757</v>
       </c>
       <c r="AB11" t="n">
-        <v>1096.521970184523</v>
+        <v>1218.441678488838</v>
       </c>
       <c r="AC11" t="n">
-        <v>991.8714523283625</v>
+        <v>1102.155314787498</v>
       </c>
       <c r="AD11" t="n">
-        <v>801408.138103161</v>
+        <v>890514.8309802758</v>
       </c>
       <c r="AE11" t="n">
-        <v>1096521.970184523</v>
+        <v>1218441.678488838</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.265289294288505e-06</v>
+        <v>2.223063377216592e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.89043209876543</v>
       </c>
       <c r="AH11" t="n">
-        <v>991871.4523283625</v>
+        <v>1102155.314787498</v>
       </c>
     </row>
     <row r="12">
@@ -52309,28 +52309,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>790.903939346812</v>
+        <v>880.0106322239267</v>
       </c>
       <c r="AB12" t="n">
-        <v>1082.149662033544</v>
+        <v>1204.069370337858</v>
       </c>
       <c r="AC12" t="n">
-        <v>978.8708170956511</v>
+        <v>1089.154679554787</v>
       </c>
       <c r="AD12" t="n">
-        <v>790903.939346812</v>
+        <v>880010.6322239267</v>
       </c>
       <c r="AE12" t="n">
-        <v>1082149.662033543</v>
+        <v>1204069.370337858</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.270496246116853e-06</v>
+        <v>2.232211786176332e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.82098765432099</v>
       </c>
       <c r="AH12" t="n">
-        <v>978870.8170956511</v>
+        <v>1089154.679554787</v>
       </c>
     </row>
     <row r="13">
@@ -52415,28 +52415,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>780.8512462860118</v>
+        <v>869.9579391631266</v>
       </c>
       <c r="AB13" t="n">
-        <v>1068.395123894239</v>
+        <v>1190.314832198553</v>
       </c>
       <c r="AC13" t="n">
-        <v>966.4289927717464</v>
+        <v>1076.712855230882</v>
       </c>
       <c r="AD13" t="n">
-        <v>780851.2462860118</v>
+        <v>869957.9391631266</v>
       </c>
       <c r="AE13" t="n">
-        <v>1068395.123894239</v>
+        <v>1190314.832198553</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.273265901344698e-06</v>
+        <v>2.237077961154916e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.7824074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>966428.9927717464</v>
+        <v>1076712.855230882</v>
       </c>
     </row>
     <row r="14">
@@ -52521,28 +52521,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>770.6863316095225</v>
+        <v>859.7930244866375</v>
       </c>
       <c r="AB14" t="n">
-        <v>1054.487039189481</v>
+        <v>1176.406747493795</v>
       </c>
       <c r="AC14" t="n">
-        <v>953.8482761510907</v>
+        <v>1064.132138610227</v>
       </c>
       <c r="AD14" t="n">
-        <v>770686.3316095226</v>
+        <v>859793.0244866374</v>
       </c>
       <c r="AE14" t="n">
-        <v>1054487.039189481</v>
+        <v>1176406.747493795</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.278805211800387e-06</v>
+        <v>2.246810311112085e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.71296296296297</v>
       </c>
       <c r="AH14" t="n">
-        <v>953848.2761510906</v>
+        <v>1064132.138610227</v>
       </c>
     </row>
     <row r="15">
@@ -52627,28 +52627,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>759.266832504437</v>
+        <v>848.3735253815521</v>
       </c>
       <c r="AB15" t="n">
-        <v>1038.862376721158</v>
+        <v>1160.782085025472</v>
       </c>
       <c r="AC15" t="n">
-        <v>939.7148095393933</v>
+        <v>1049.998671998529</v>
       </c>
       <c r="AD15" t="n">
-        <v>759266.8325044371</v>
+        <v>848373.5253815521</v>
       </c>
       <c r="AE15" t="n">
-        <v>1038862.376721158</v>
+        <v>1160782.085025473</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.282627336014812e-06</v>
+        <v>2.253525632582532e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.66280864197531</v>
       </c>
       <c r="AH15" t="n">
-        <v>939714.8095393933</v>
+        <v>1049998.671998529</v>
       </c>
     </row>
     <row r="16">
@@ -52733,28 +52733,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>755.714857219702</v>
+        <v>844.8215500968167</v>
       </c>
       <c r="AB16" t="n">
-        <v>1034.002407434493</v>
+        <v>1155.922115738808</v>
       </c>
       <c r="AC16" t="n">
-        <v>935.3186689004378</v>
+        <v>1045.602531359574</v>
       </c>
       <c r="AD16" t="n">
-        <v>755714.857219702</v>
+        <v>844821.5500968167</v>
       </c>
       <c r="AE16" t="n">
-        <v>1034002.407434493</v>
+        <v>1155922.115738808</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.284012163628734e-06</v>
+        <v>2.255958720071824e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.64351851851852</v>
       </c>
       <c r="AH16" t="n">
-        <v>935318.6689004379</v>
+        <v>1045602.531359574</v>
       </c>
     </row>
     <row r="17">
@@ -52839,28 +52839,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>758.7266860849835</v>
+        <v>847.8333789620985</v>
       </c>
       <c r="AB17" t="n">
-        <v>1038.123324560483</v>
+        <v>1160.043032864798</v>
       </c>
       <c r="AC17" t="n">
-        <v>939.0462914796672</v>
+        <v>1049.330153938803</v>
       </c>
       <c r="AD17" t="n">
-        <v>758726.6860849835</v>
+        <v>847833.3789620985</v>
       </c>
       <c r="AE17" t="n">
-        <v>1038123.324560483</v>
+        <v>1160043.032864798</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.283624411896836e-06</v>
+        <v>2.255277455574822e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.64737654320988</v>
       </c>
       <c r="AH17" t="n">
-        <v>939046.2914796672</v>
+        <v>1049330.153938803</v>
       </c>
     </row>
   </sheetData>
@@ -53136,28 +53136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2211.753957900286</v>
+        <v>2375.709784549792</v>
       </c>
       <c r="AB2" t="n">
-        <v>3026.219340897419</v>
+        <v>3250.550936139863</v>
       </c>
       <c r="AC2" t="n">
-        <v>2737.401214327576</v>
+        <v>2940.322916971444</v>
       </c>
       <c r="AD2" t="n">
-        <v>2211753.957900286</v>
+        <v>2375709.784549792</v>
       </c>
       <c r="AE2" t="n">
-        <v>3026219.340897419</v>
+        <v>3250550.936139863</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.888502942511147e-07</v>
+        <v>1.177857236042459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2737401.214327576</v>
+        <v>2940322.916971444</v>
       </c>
     </row>
     <row r="3">
@@ -53242,28 +53242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1373.188291963575</v>
+        <v>1496.112491523418</v>
       </c>
       <c r="AB3" t="n">
-        <v>1878.856801856427</v>
+        <v>2047.047114727151</v>
       </c>
       <c r="AC3" t="n">
-        <v>1699.541345679332</v>
+        <v>1851.679811146261</v>
       </c>
       <c r="AD3" t="n">
-        <v>1373188.291963574</v>
+        <v>1496112.491523418</v>
       </c>
       <c r="AE3" t="n">
-        <v>1878856.801856427</v>
+        <v>2047047.114727151</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.436261527912595e-07</v>
+        <v>1.61349556131411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.82484567901234</v>
       </c>
       <c r="AH3" t="n">
-        <v>1699541.345679332</v>
+        <v>1851679.811146261</v>
       </c>
     </row>
     <row r="4">
@@ -53348,28 +53348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1185.447206637453</v>
+        <v>1288.026274361609</v>
       </c>
       <c r="AB4" t="n">
-        <v>1621.981166361096</v>
+        <v>1762.334372290362</v>
       </c>
       <c r="AC4" t="n">
-        <v>1467.181560308457</v>
+        <v>1594.139653250796</v>
       </c>
       <c r="AD4" t="n">
-        <v>1185447.206637453</v>
+        <v>1288026.274361609</v>
       </c>
       <c r="AE4" t="n">
-        <v>1621981.166361096</v>
+        <v>1762334.372290362</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.042056214209241e-06</v>
+        <v>1.781799997057023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.7608024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>1467181.560308457</v>
+        <v>1594139.653250796</v>
       </c>
     </row>
     <row r="5">
@@ -53454,28 +53454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1099.715513667894</v>
+        <v>1202.209240537477</v>
       </c>
       <c r="AB5" t="n">
-        <v>1504.679281824786</v>
+        <v>1644.915720631854</v>
       </c>
       <c r="AC5" t="n">
-        <v>1361.074802998064</v>
+        <v>1487.927272908463</v>
       </c>
       <c r="AD5" t="n">
-        <v>1099715.513667894</v>
+        <v>1202209.240537477</v>
       </c>
       <c r="AE5" t="n">
-        <v>1504679.281824786</v>
+        <v>1644915.720631854</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.0945807155299e-06</v>
+        <v>1.871611040859098e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.81558641975309</v>
       </c>
       <c r="AH5" t="n">
-        <v>1361074.802998064</v>
+        <v>1487927.272908463</v>
       </c>
     </row>
     <row r="6">
@@ -53560,28 +53560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1055.315063481782</v>
+        <v>1147.550973087502</v>
       </c>
       <c r="AB6" t="n">
-        <v>1443.928627070532</v>
+        <v>1570.129867754222</v>
       </c>
       <c r="AC6" t="n">
-        <v>1306.122105469477</v>
+        <v>1420.278876866869</v>
       </c>
       <c r="AD6" t="n">
-        <v>1055315.063481782</v>
+        <v>1147550.973087502</v>
       </c>
       <c r="AE6" t="n">
-        <v>1443928.627070532</v>
+        <v>1570129.867754222</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.127728800204827e-06</v>
+        <v>1.928290571551261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.26003086419753</v>
       </c>
       <c r="AH6" t="n">
-        <v>1306122.105469476</v>
+        <v>1420278.876866869</v>
       </c>
     </row>
     <row r="7">
@@ -53666,28 +53666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1016.731853771834</v>
+        <v>1119.140239786846</v>
       </c>
       <c r="AB7" t="n">
-        <v>1391.137377374302</v>
+        <v>1531.257049059173</v>
       </c>
       <c r="AC7" t="n">
-        <v>1258.36917855127</v>
+        <v>1385.116025429731</v>
       </c>
       <c r="AD7" t="n">
-        <v>1016731.853771834</v>
+        <v>1119140.239786847</v>
       </c>
       <c r="AE7" t="n">
-        <v>1391137.377374302</v>
+        <v>1531257.049059173</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.14892008783115e-06</v>
+        <v>1.964525311784416e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.92438271604938</v>
       </c>
       <c r="AH7" t="n">
-        <v>1258369.17855127</v>
+        <v>1385116.025429731</v>
       </c>
     </row>
     <row r="8">
@@ -53772,28 +53772,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>994.1789676364426</v>
+        <v>1086.500128588183</v>
       </c>
       <c r="AB8" t="n">
-        <v>1360.279523600744</v>
+        <v>1486.597408937084</v>
       </c>
       <c r="AC8" t="n">
-        <v>1230.456355032591</v>
+        <v>1344.718638680695</v>
       </c>
       <c r="AD8" t="n">
-        <v>994178.9676364426</v>
+        <v>1086500.128588183</v>
       </c>
       <c r="AE8" t="n">
-        <v>1360279.523600744</v>
+        <v>1486597.408937084</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.165414062331235e-06</v>
+        <v>1.99272817005153e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.66975308641975</v>
       </c>
       <c r="AH8" t="n">
-        <v>1230456.355032591</v>
+        <v>1344718.638680696</v>
       </c>
     </row>
     <row r="9">
@@ -53878,28 +53878,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>975.2705707023972</v>
+        <v>1067.421139453545</v>
       </c>
       <c r="AB9" t="n">
-        <v>1334.408220735984</v>
+        <v>1460.492694297477</v>
       </c>
       <c r="AC9" t="n">
-        <v>1207.054173002642</v>
+        <v>1321.105321368095</v>
       </c>
       <c r="AD9" t="n">
-        <v>975270.5707023973</v>
+        <v>1067421.139453545</v>
       </c>
       <c r="AE9" t="n">
-        <v>1334408.220735984</v>
+        <v>1460492.694297477</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.179185730360432e-06</v>
+        <v>2.016276187633782e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.46527777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1207054.173002642</v>
+        <v>1321105.321368095</v>
       </c>
     </row>
     <row r="10">
@@ -53984,28 +53984,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>960.369380692649</v>
+        <v>1052.519949443797</v>
       </c>
       <c r="AB10" t="n">
-        <v>1314.01975517054</v>
+        <v>1440.104228732032</v>
       </c>
       <c r="AC10" t="n">
-        <v>1188.611553975372</v>
+        <v>1302.662702340826</v>
       </c>
       <c r="AD10" t="n">
-        <v>960369.3806926489</v>
+        <v>1052519.949443797</v>
       </c>
       <c r="AE10" t="n">
-        <v>1314019.75517054</v>
+        <v>1440104.228732032</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.18922089931194e-06</v>
+        <v>2.033435208197593e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.31867283950617</v>
       </c>
       <c r="AH10" t="n">
-        <v>1188611.553975372</v>
+        <v>1302662.702340826</v>
       </c>
     </row>
     <row r="11">
@@ -54090,28 +54090,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>948.6755409192484</v>
+        <v>1040.826109670396</v>
       </c>
       <c r="AB11" t="n">
-        <v>1298.019727696772</v>
+        <v>1424.104201258265</v>
       </c>
       <c r="AC11" t="n">
-        <v>1174.138546667521</v>
+        <v>1288.189695032975</v>
       </c>
       <c r="AD11" t="n">
-        <v>948675.5409192484</v>
+        <v>1040826.109670396</v>
       </c>
       <c r="AE11" t="n">
-        <v>1298019.727696772</v>
+        <v>1424104.201258265</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.196480383234307e-06</v>
+        <v>2.045848116690562e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.21064814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>1174138.546667522</v>
+        <v>1288189.695032975</v>
       </c>
     </row>
     <row r="12">
@@ -54196,28 +54196,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>937.5567655619811</v>
+        <v>1019.620109249857</v>
       </c>
       <c r="AB12" t="n">
-        <v>1282.80652872721</v>
+        <v>1395.089215940171</v>
       </c>
       <c r="AC12" t="n">
-        <v>1160.377274055756</v>
+        <v>1261.943859190853</v>
       </c>
       <c r="AD12" t="n">
-        <v>937556.7655619811</v>
+        <v>1019620.109249857</v>
       </c>
       <c r="AE12" t="n">
-        <v>1282806.52872721</v>
+        <v>1395089.215940171</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.203152703015895e-06</v>
+        <v>2.057257039937777e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.11805555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1160377.274055756</v>
+        <v>1261943.859190853</v>
       </c>
     </row>
     <row r="13">
@@ -54302,28 +54302,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>928.6460380211615</v>
+        <v>1010.709381709037</v>
       </c>
       <c r="AB13" t="n">
-        <v>1270.614478192306</v>
+        <v>1382.897165405268</v>
       </c>
       <c r="AC13" t="n">
-        <v>1149.348815712252</v>
+        <v>1250.91540084735</v>
       </c>
       <c r="AD13" t="n">
-        <v>928646.0380211616</v>
+        <v>1010709.381709037</v>
       </c>
       <c r="AE13" t="n">
-        <v>1270614.478192306</v>
+        <v>1382897.165405268</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.208277044608154e-06</v>
+        <v>2.066019092991638e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.04475308641975</v>
       </c>
       <c r="AH13" t="n">
-        <v>1149348.815712252</v>
+        <v>1250915.40084735</v>
       </c>
     </row>
     <row r="14">
@@ -54408,28 +54408,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>920.889602373552</v>
+        <v>1002.952946061427</v>
       </c>
       <c r="AB14" t="n">
-        <v>1260.001780749456</v>
+        <v>1372.284467962418</v>
       </c>
       <c r="AC14" t="n">
-        <v>1139.748979218334</v>
+        <v>1241.315564353431</v>
       </c>
       <c r="AD14" t="n">
-        <v>920889.6023735519</v>
+        <v>1002952.946061427</v>
       </c>
       <c r="AE14" t="n">
-        <v>1260001.780749456</v>
+        <v>1372284.467962418</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.211266243870306e-06</v>
+        <v>2.071130290606391e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.00231481481482</v>
       </c>
       <c r="AH14" t="n">
-        <v>1139748.979218334</v>
+        <v>1241315.564353431</v>
       </c>
     </row>
     <row r="15">
@@ -54514,28 +54514,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>899.2275261866188</v>
+        <v>991.4633462837871</v>
       </c>
       <c r="AB15" t="n">
-        <v>1230.362772447141</v>
+        <v>1356.563890661282</v>
       </c>
       <c r="AC15" t="n">
-        <v>1112.938676269781</v>
+        <v>1227.095336885947</v>
       </c>
       <c r="AD15" t="n">
-        <v>899227.5261866187</v>
+        <v>991463.3462837872</v>
       </c>
       <c r="AE15" t="n">
-        <v>1230362.77244714</v>
+        <v>1356563.890661282</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.217244642394608e-06</v>
+        <v>2.081352685835895e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.91743827160494</v>
       </c>
       <c r="AH15" t="n">
-        <v>1112938.676269781</v>
+        <v>1227095.336885947</v>
       </c>
     </row>
     <row r="16">
@@ -54620,28 +54620,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>890.2884812292715</v>
+        <v>982.5243013264402</v>
       </c>
       <c r="AB16" t="n">
-        <v>1218.131976773667</v>
+        <v>1344.333094987809</v>
       </c>
       <c r="AC16" t="n">
-        <v>1101.875170569355</v>
+        <v>1216.031831185521</v>
       </c>
       <c r="AD16" t="n">
-        <v>890288.4812292715</v>
+        <v>982524.3013264402</v>
       </c>
       <c r="AE16" t="n">
-        <v>1218131.976773667</v>
+        <v>1344333.094987809</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.22103452003055e-06</v>
+        <v>2.087832954240313e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.86728395061728</v>
       </c>
       <c r="AH16" t="n">
-        <v>1101875.170569355</v>
+        <v>1216031.831185521</v>
       </c>
     </row>
     <row r="17">
@@ -54726,28 +54726,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>886.1576345329599</v>
+        <v>978.3934546301283</v>
       </c>
       <c r="AB17" t="n">
-        <v>1212.479970083679</v>
+        <v>1338.681088297821</v>
       </c>
       <c r="AC17" t="n">
-        <v>1096.762583465218</v>
+        <v>1210.919244081384</v>
       </c>
       <c r="AD17" t="n">
-        <v>886157.6345329599</v>
+        <v>978393.4546301283</v>
       </c>
       <c r="AE17" t="n">
-        <v>1212479.970083679</v>
+        <v>1338681.088297821</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.222048712637351e-06</v>
+        <v>2.08956711057389e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.85185185185185</v>
       </c>
       <c r="AH17" t="n">
-        <v>1096762.583465218</v>
+        <v>1210919.244081384</v>
       </c>
     </row>
     <row r="18">
@@ -54832,28 +54832,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>876.2510360755925</v>
+        <v>968.4868561727609</v>
       </c>
       <c r="AB18" t="n">
-        <v>1198.925325026031</v>
+        <v>1325.126443240172</v>
       </c>
       <c r="AC18" t="n">
-        <v>1084.501574707808</v>
+        <v>1198.658235323974</v>
       </c>
       <c r="AD18" t="n">
-        <v>876251.0360755925</v>
+        <v>968486.8561727609</v>
       </c>
       <c r="AE18" t="n">
-        <v>1198925.325026031</v>
+        <v>1325126.443240172</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.226585890088831e-06</v>
+        <v>2.097325178381996e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.79012345679012</v>
       </c>
       <c r="AH18" t="n">
-        <v>1084501.574707808</v>
+        <v>1198658.235323974</v>
       </c>
     </row>
     <row r="19">
@@ -54938,28 +54938,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>872.1278451656761</v>
+        <v>964.3636652628446</v>
       </c>
       <c r="AB19" t="n">
-        <v>1193.283793320738</v>
+        <v>1319.48491153488</v>
       </c>
       <c r="AC19" t="n">
-        <v>1079.398462870529</v>
+        <v>1193.555123486695</v>
       </c>
       <c r="AD19" t="n">
-        <v>872127.8451656762</v>
+        <v>964363.6652628446</v>
       </c>
       <c r="AE19" t="n">
-        <v>1193283.793320738</v>
+        <v>1319484.91153488</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.227866975486896e-06</v>
+        <v>2.099515691645461e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1079398.462870529</v>
+        <v>1193555.123486695</v>
       </c>
     </row>
     <row r="20">
@@ -55044,28 +55044,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>863.6757888691691</v>
+        <v>955.9116089663376</v>
       </c>
       <c r="AB20" t="n">
-        <v>1181.71931701745</v>
+        <v>1307.920435231592</v>
       </c>
       <c r="AC20" t="n">
-        <v>1068.937683954782</v>
+        <v>1183.094344570948</v>
       </c>
       <c r="AD20" t="n">
-        <v>863675.7888691691</v>
+        <v>955911.6089663375</v>
       </c>
       <c r="AE20" t="n">
-        <v>1181719.31701745</v>
+        <v>1307920.435231592</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.229681846467487e-06</v>
+        <v>2.102618918768704e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.74768518518518</v>
       </c>
       <c r="AH20" t="n">
-        <v>1068937.683954782</v>
+        <v>1183094.344570948</v>
       </c>
     </row>
     <row r="21">
@@ -55150,28 +55150,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>856.6175161597594</v>
+        <v>948.8533362569278</v>
       </c>
       <c r="AB21" t="n">
-        <v>1172.06187690742</v>
+        <v>1298.262995121562</v>
       </c>
       <c r="AC21" t="n">
-        <v>1060.201936374551</v>
+        <v>1174.358596990717</v>
       </c>
       <c r="AD21" t="n">
-        <v>856617.5161597594</v>
+        <v>948853.3362569278</v>
       </c>
       <c r="AE21" t="n">
-        <v>1172061.87690742</v>
+        <v>1298262.995121562</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.231656853122837e-06</v>
+        <v>2.105995960049879e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.72067901234568</v>
       </c>
       <c r="AH21" t="n">
-        <v>1060201.936374551</v>
+        <v>1174358.596990717</v>
       </c>
     </row>
     <row r="22">
@@ -55256,28 +55256,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>850.0168130381321</v>
+        <v>942.2526331353006</v>
       </c>
       <c r="AB22" t="n">
-        <v>1163.03050369394</v>
+        <v>1289.231621908082</v>
       </c>
       <c r="AC22" t="n">
-        <v>1052.032504744954</v>
+        <v>1166.18916536112</v>
       </c>
       <c r="AD22" t="n">
-        <v>850016.8130381322</v>
+        <v>942252.6331353006</v>
       </c>
       <c r="AE22" t="n">
-        <v>1163030.50369394</v>
+        <v>1289231.621908082</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.233525102661682e-06</v>
+        <v>2.1091904585591e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.69367283950617</v>
       </c>
       <c r="AH22" t="n">
-        <v>1052032.504744954</v>
+        <v>1166189.16536112</v>
       </c>
     </row>
     <row r="23">
@@ -55362,28 +55362,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>845.9384789176424</v>
+        <v>938.1742990148109</v>
       </c>
       <c r="AB23" t="n">
-        <v>1157.450347026883</v>
+        <v>1283.651465241025</v>
       </c>
       <c r="AC23" t="n">
-        <v>1046.984910398402</v>
+        <v>1161.141571014568</v>
       </c>
       <c r="AD23" t="n">
-        <v>845938.4789176425</v>
+        <v>938174.2990148109</v>
       </c>
       <c r="AE23" t="n">
-        <v>1157450.347026883</v>
+        <v>1283651.465241025</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.234912945176252e-06</v>
+        <v>2.11156351459452e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.67438271604938</v>
       </c>
       <c r="AH23" t="n">
-        <v>1046984.910398402</v>
+        <v>1161141.571014568</v>
       </c>
     </row>
     <row r="24">
@@ -55468,28 +55468,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>847.3018286939504</v>
+        <v>939.5376487911187</v>
       </c>
       <c r="AB24" t="n">
-        <v>1159.315742337575</v>
+        <v>1285.516860551716</v>
       </c>
       <c r="AC24" t="n">
-        <v>1048.67227499874</v>
+        <v>1162.828935614906</v>
       </c>
       <c r="AD24" t="n">
-        <v>847301.8286939503</v>
+        <v>939537.6487911188</v>
       </c>
       <c r="AE24" t="n">
-        <v>1159315.742337575</v>
+        <v>1285516.860551717</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.234592673826736e-06</v>
+        <v>2.111015886278654e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.6820987654321</v>
       </c>
       <c r="AH24" t="n">
-        <v>1048672.27499874</v>
+        <v>1162828.935614906</v>
       </c>
     </row>
   </sheetData>
@@ -55765,28 +55765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.558852621367</v>
+        <v>472.7149574760717</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.694049449061</v>
+        <v>646.7894595308344</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.5183366595594</v>
+        <v>585.0607812879185</v>
       </c>
       <c r="AD2" t="n">
-        <v>399558.852621367</v>
+        <v>472714.9574760717</v>
       </c>
       <c r="AE2" t="n">
-        <v>546694.049449061</v>
+        <v>646789.4595308343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.46580099414587e-06</v>
+        <v>3.141886664410841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.0516975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>494518.3366595594</v>
+        <v>585060.7812879186</v>
       </c>
     </row>
   </sheetData>
@@ -56062,28 +56062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1094.825371178188</v>
+        <v>1197.900803558042</v>
       </c>
       <c r="AB2" t="n">
-        <v>1497.988373132511</v>
+        <v>1639.020727081765</v>
       </c>
       <c r="AC2" t="n">
-        <v>1355.02246524063</v>
+        <v>1482.594889269119</v>
       </c>
       <c r="AD2" t="n">
-        <v>1094825.371178188</v>
+        <v>1197900.803558042</v>
       </c>
       <c r="AE2" t="n">
-        <v>1497988.373132511</v>
+        <v>1639020.727081765</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.015502324137148e-06</v>
+        <v>1.870994521464037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.33410493827161</v>
       </c>
       <c r="AH2" t="n">
-        <v>1355022.46524063</v>
+        <v>1482594.889269119</v>
       </c>
     </row>
     <row r="3">
@@ -56168,28 +56168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>828.6735295161247</v>
+        <v>922.3706284123473</v>
       </c>
       <c r="AB3" t="n">
-        <v>1133.827681579916</v>
+        <v>1262.028185913994</v>
       </c>
       <c r="AC3" t="n">
-        <v>1025.616758987073</v>
+        <v>1141.581987118045</v>
       </c>
       <c r="AD3" t="n">
-        <v>828673.5295161247</v>
+        <v>922370.6284123473</v>
       </c>
       <c r="AE3" t="n">
-        <v>1133827.681579916</v>
+        <v>1262028.185913994</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.205563630952906e-06</v>
+        <v>2.221169656805778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.81172839506173</v>
       </c>
       <c r="AH3" t="n">
-        <v>1025616.758987073</v>
+        <v>1141581.987118045</v>
       </c>
     </row>
     <row r="4">
@@ -56274,28 +56274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>753.1131191708446</v>
+        <v>837.5173149465593</v>
       </c>
       <c r="AB4" t="n">
-        <v>1030.442594655465</v>
+        <v>1145.928138966113</v>
       </c>
       <c r="AC4" t="n">
-        <v>932.0985996568113</v>
+        <v>1036.562365703431</v>
       </c>
       <c r="AD4" t="n">
-        <v>753113.1191708446</v>
+        <v>837517.3149465593</v>
       </c>
       <c r="AE4" t="n">
-        <v>1030442.594655465</v>
+        <v>1145928.138966113</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273581240599003e-06</v>
+        <v>2.346487513777753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.80864197530864</v>
       </c>
       <c r="AH4" t="n">
-        <v>932098.5996568113</v>
+        <v>1036562.365703431</v>
       </c>
     </row>
     <row r="5">
@@ -56380,28 +56380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>717.0592559493512</v>
+        <v>801.2928595244736</v>
       </c>
       <c r="AB5" t="n">
-        <v>981.1121084116301</v>
+        <v>1096.364240947431</v>
       </c>
       <c r="AC5" t="n">
-        <v>887.4761457843159</v>
+        <v>991.7287765482841</v>
       </c>
       <c r="AD5" t="n">
-        <v>717059.2559493511</v>
+        <v>801292.8595244735</v>
       </c>
       <c r="AE5" t="n">
-        <v>981112.10841163</v>
+        <v>1096364.240947431</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.309383076618427e-06</v>
+        <v>2.412449981276398e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.32253086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>887476.1457843159</v>
+        <v>991728.7765482841</v>
       </c>
     </row>
     <row r="6">
@@ -56486,28 +56486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>693.9193241812864</v>
+        <v>768.9453654904726</v>
       </c>
       <c r="AB6" t="n">
-        <v>949.4510329048228</v>
+        <v>1052.104972539392</v>
       </c>
       <c r="AC6" t="n">
-        <v>858.8367588872799</v>
+        <v>951.6935505988347</v>
       </c>
       <c r="AD6" t="n">
-        <v>693919.3241812864</v>
+        <v>768945.3654904725</v>
       </c>
       <c r="AE6" t="n">
-        <v>949451.0329048228</v>
+        <v>1052104.972539392</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.329018237916436e-06</v>
+        <v>2.448626441283866e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.06404320987654</v>
       </c>
       <c r="AH6" t="n">
-        <v>858836.7588872799</v>
+        <v>951693.5505988346</v>
       </c>
     </row>
     <row r="7">
@@ -56592,28 +56592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>663.0407742663208</v>
+        <v>747.3596291874638</v>
       </c>
       <c r="AB7" t="n">
-        <v>907.2016386456886</v>
+        <v>1022.570415834139</v>
       </c>
       <c r="AC7" t="n">
-        <v>820.6195875188401</v>
+        <v>924.9777305335209</v>
       </c>
       <c r="AD7" t="n">
-        <v>663040.7742663207</v>
+        <v>747359.6291874638</v>
       </c>
       <c r="AE7" t="n">
-        <v>907201.6386456887</v>
+        <v>1022570.415834139</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.345126124729773e-06</v>
+        <v>2.47830413602053e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.85956790123457</v>
       </c>
       <c r="AH7" t="n">
-        <v>820619.5875188401</v>
+        <v>924977.7305335209</v>
       </c>
     </row>
     <row r="8">
@@ -56698,28 +56698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>645.5510924101503</v>
+        <v>729.8699473312934</v>
       </c>
       <c r="AB8" t="n">
-        <v>883.271484339769</v>
+        <v>998.6402615282193</v>
       </c>
       <c r="AC8" t="n">
-        <v>798.9732935536948</v>
+        <v>903.3314365683755</v>
       </c>
       <c r="AD8" t="n">
-        <v>645551.0924101503</v>
+        <v>729869.9473312934</v>
       </c>
       <c r="AE8" t="n">
-        <v>883271.484339769</v>
+        <v>998640.2615282193</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.354532190022232e-06</v>
+        <v>2.49563417674267e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.74382716049383</v>
       </c>
       <c r="AH8" t="n">
-        <v>798973.2935536948</v>
+        <v>903331.4365683754</v>
       </c>
     </row>
     <row r="9">
@@ -56804,28 +56804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>637.7210675008555</v>
+        <v>722.0399224219984</v>
       </c>
       <c r="AB9" t="n">
-        <v>872.5580988225522</v>
+        <v>987.9268760110028</v>
       </c>
       <c r="AC9" t="n">
-        <v>789.2823785139105</v>
+        <v>893.6405215285911</v>
       </c>
       <c r="AD9" t="n">
-        <v>637721.0675008555</v>
+        <v>722039.9224219985</v>
       </c>
       <c r="AE9" t="n">
-        <v>872558.0988225522</v>
+        <v>987926.8760110028</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.358647343587683e-06</v>
+        <v>2.503216069558607e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.69367283950617</v>
       </c>
       <c r="AH9" t="n">
-        <v>789282.3785139106</v>
+        <v>893640.5215285911</v>
       </c>
     </row>
     <row r="10">
@@ -56910,28 +56910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>641.170227034562</v>
+        <v>725.489081955705</v>
       </c>
       <c r="AB10" t="n">
-        <v>877.2773910627491</v>
+        <v>992.6461682511997</v>
       </c>
       <c r="AC10" t="n">
-        <v>793.551268126271</v>
+        <v>897.9094111409516</v>
       </c>
       <c r="AD10" t="n">
-        <v>641170.227034562</v>
+        <v>725489.0819557051</v>
       </c>
       <c r="AE10" t="n">
-        <v>877277.3910627491</v>
+        <v>992646.1682511996</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.358529767771527e-06</v>
+        <v>2.50299944404958e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.69367283950617</v>
       </c>
       <c r="AH10" t="n">
-        <v>793551.268126271</v>
+        <v>897909.4111409517</v>
       </c>
     </row>
   </sheetData>
@@ -57207,28 +57207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1411.217708913735</v>
+        <v>1537.411303190895</v>
       </c>
       <c r="AB2" t="n">
-        <v>1930.890327867104</v>
+        <v>2103.553970825574</v>
       </c>
       <c r="AC2" t="n">
-        <v>1746.608864997062</v>
+        <v>1902.793732206522</v>
       </c>
       <c r="AD2" t="n">
-        <v>1411217.708913735</v>
+        <v>1537411.303190895</v>
       </c>
       <c r="AE2" t="n">
-        <v>1930890.327867104</v>
+        <v>2103553.970825574</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.889054283332527e-07</v>
+        <v>1.587964676927603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.56404320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>1746608.864997062</v>
+        <v>1902793.732206522</v>
       </c>
     </row>
     <row r="3">
@@ -57313,28 +57313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1004.0171875008</v>
+        <v>1101.154829909824</v>
       </c>
       <c r="AB3" t="n">
-        <v>1373.740610050786</v>
+        <v>1506.648617805147</v>
       </c>
       <c r="AC3" t="n">
-        <v>1242.632734284594</v>
+        <v>1362.856188316439</v>
       </c>
       <c r="AD3" t="n">
-        <v>1004017.1875008</v>
+        <v>1101154.829909824</v>
       </c>
       <c r="AE3" t="n">
-        <v>1373740.610050787</v>
+        <v>1506648.617805147</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.105910421152717e-06</v>
+        <v>1.975628259948324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.74537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1242632.734284594</v>
+        <v>1362856.188316439</v>
       </c>
     </row>
     <row r="4">
@@ -57419,28 +57419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>900.5445506397574</v>
+        <v>987.8831774618583</v>
       </c>
       <c r="AB4" t="n">
-        <v>1232.164783406943</v>
+        <v>1351.665345733218</v>
       </c>
       <c r="AC4" t="n">
-        <v>1114.568705832719</v>
+        <v>1222.664302210667</v>
       </c>
       <c r="AD4" t="n">
-        <v>900544.5506397574</v>
+        <v>987883.1774618583</v>
       </c>
       <c r="AE4" t="n">
-        <v>1232164.783406943</v>
+        <v>1351665.345733218</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186395841024725e-06</v>
+        <v>2.119409588862113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.40663580246914</v>
       </c>
       <c r="AH4" t="n">
-        <v>1114568.705832719</v>
+        <v>1222664.302210667</v>
       </c>
     </row>
     <row r="5">
@@ -57525,28 +57525,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>846.3659403258084</v>
+        <v>933.7898184939298</v>
       </c>
       <c r="AB5" t="n">
-        <v>1158.035218583802</v>
+        <v>1277.652425562727</v>
       </c>
       <c r="AC5" t="n">
-        <v>1047.513962634801</v>
+        <v>1155.715071263461</v>
       </c>
       <c r="AD5" t="n">
-        <v>846365.9403258085</v>
+        <v>933789.8184939298</v>
       </c>
       <c r="AE5" t="n">
-        <v>1158035.218583802</v>
+        <v>1277652.425562727</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.226751751269973e-06</v>
+        <v>2.191502477410307e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.80092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>1047513.962634801</v>
+        <v>1155715.071263461</v>
       </c>
     </row>
     <row r="6">
@@ -57631,28 +57631,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>817.1037627280906</v>
+        <v>904.3570486956198</v>
       </c>
       <c r="AB6" t="n">
-        <v>1117.99741623844</v>
+        <v>1237.381211442517</v>
       </c>
       <c r="AC6" t="n">
-        <v>1011.297311951872</v>
+        <v>1119.287285297881</v>
       </c>
       <c r="AD6" t="n">
-        <v>817103.7627280906</v>
+        <v>904357.0486956198</v>
       </c>
       <c r="AE6" t="n">
-        <v>1117997.41623844</v>
+        <v>1237381.211442518</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.252448221468209e-06</v>
+        <v>2.237407346135243e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.43441358024691</v>
       </c>
       <c r="AH6" t="n">
-        <v>1011297.311951871</v>
+        <v>1119287.285297881</v>
       </c>
     </row>
     <row r="7">
@@ -57737,28 +57737,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>797.4357329498474</v>
+        <v>884.6890189173768</v>
       </c>
       <c r="AB7" t="n">
-        <v>1091.086750203613</v>
+        <v>1210.47054540769</v>
       </c>
       <c r="AC7" t="n">
-        <v>986.954962114051</v>
+        <v>1094.94493546006</v>
       </c>
       <c r="AD7" t="n">
-        <v>797435.7329498475</v>
+        <v>884689.0189173768</v>
       </c>
       <c r="AE7" t="n">
-        <v>1091086.750203613</v>
+        <v>1210470.54540769</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.26812646429841e-06</v>
+        <v>2.265415382780194e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.21836419753087</v>
       </c>
       <c r="AH7" t="n">
-        <v>986954.962114051</v>
+        <v>1094944.93546006</v>
       </c>
     </row>
     <row r="8">
@@ -57843,28 +57843,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>778.8991137362246</v>
+        <v>856.6093171719946</v>
       </c>
       <c r="AB8" t="n">
-        <v>1065.72413001761</v>
+        <v>1172.050658690647</v>
       </c>
       <c r="AC8" t="n">
-        <v>964.0129148019396</v>
+        <v>1060.191788808642</v>
       </c>
       <c r="AD8" t="n">
-        <v>778899.1137362246</v>
+        <v>856609.3171719946</v>
       </c>
       <c r="AE8" t="n">
-        <v>1065724.13001761</v>
+        <v>1172050.658690647</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.28137090047988e-06</v>
+        <v>2.28907560146221e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.0408950617284</v>
       </c>
       <c r="AH8" t="n">
-        <v>964012.9148019396</v>
+        <v>1060191.788808642</v>
       </c>
     </row>
     <row r="9">
@@ -57949,28 +57949,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>754.084476449478</v>
+        <v>841.4230137630277</v>
       </c>
       <c r="AB9" t="n">
-        <v>1031.77164853735</v>
+        <v>1151.272088394076</v>
       </c>
       <c r="AC9" t="n">
-        <v>933.300810501548</v>
+        <v>1041.396296098269</v>
       </c>
       <c r="AD9" t="n">
-        <v>754084.476449478</v>
+        <v>841423.0137630277</v>
       </c>
       <c r="AE9" t="n">
-        <v>1031771.64853735</v>
+        <v>1151272.088394076</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.291049526920184e-06</v>
+        <v>2.306365761268298e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.91358024691358</v>
       </c>
       <c r="AH9" t="n">
-        <v>933300.810501548</v>
+        <v>1041396.296098269</v>
       </c>
     </row>
     <row r="10">
@@ -58055,28 +58055,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>739.7031854459665</v>
+        <v>827.0417227595162</v>
       </c>
       <c r="AB10" t="n">
-        <v>1012.094531728564</v>
+        <v>1131.59497158529</v>
       </c>
       <c r="AC10" t="n">
-        <v>915.5016501039859</v>
+        <v>1023.597135700707</v>
       </c>
       <c r="AD10" t="n">
-        <v>739703.1854459664</v>
+        <v>827041.7227595162</v>
       </c>
       <c r="AE10" t="n">
-        <v>1012094.531728564</v>
+        <v>1131594.97158529</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.298747147948731e-06</v>
+        <v>2.32011699947665e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.81327160493827</v>
       </c>
       <c r="AH10" t="n">
-        <v>915501.6501039859</v>
+        <v>1023597.135700707</v>
       </c>
     </row>
     <row r="11">
@@ -58161,28 +58161,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>727.8736816455307</v>
+        <v>815.2122189590805</v>
       </c>
       <c r="AB11" t="n">
-        <v>995.9088827479328</v>
+        <v>1115.409322604659</v>
       </c>
       <c r="AC11" t="n">
-        <v>900.8607367453651</v>
+        <v>1008.956222342086</v>
       </c>
       <c r="AD11" t="n">
-        <v>727873.6816455307</v>
+        <v>815212.2189590805</v>
       </c>
       <c r="AE11" t="n">
-        <v>995908.8827479328</v>
+        <v>1115409.322604659</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.303897762019302e-06</v>
+        <v>2.329318195630766e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.74768518518518</v>
       </c>
       <c r="AH11" t="n">
-        <v>900860.7367453651</v>
+        <v>1008956.222342086</v>
       </c>
     </row>
     <row r="12">
@@ -58267,28 +58267,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>714.9276019872443</v>
+        <v>802.2661393007941</v>
       </c>
       <c r="AB12" t="n">
-        <v>978.1954854187397</v>
+        <v>1097.695925275466</v>
       </c>
       <c r="AC12" t="n">
-        <v>884.837881196361</v>
+        <v>992.9333667930822</v>
       </c>
       <c r="AD12" t="n">
-        <v>714927.6019872443</v>
+        <v>802266.1393007941</v>
       </c>
       <c r="AE12" t="n">
-        <v>978195.4854187397</v>
+        <v>1097695.925275466</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.308369174234414e-06</v>
+        <v>2.337306047237088e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.68981481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>884837.8811963609</v>
+        <v>992933.3667930822</v>
       </c>
     </row>
     <row r="13">
@@ -58373,28 +58373,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>710.9128288305134</v>
+        <v>798.2513661440632</v>
       </c>
       <c r="AB13" t="n">
-        <v>972.7022956664094</v>
+        <v>1092.202735523136</v>
       </c>
       <c r="AC13" t="n">
-        <v>879.8689537642528</v>
+        <v>987.9644393609741</v>
       </c>
       <c r="AD13" t="n">
-        <v>710912.8288305134</v>
+        <v>798251.3661440632</v>
       </c>
       <c r="AE13" t="n">
-        <v>972702.2956664094</v>
+        <v>1092202.735523136</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.310802980883146e-06</v>
+        <v>2.341653865200022e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.65895061728395</v>
       </c>
       <c r="AH13" t="n">
-        <v>879868.9537642527</v>
+        <v>987964.4393609741</v>
       </c>
     </row>
     <row r="14">
@@ -58479,28 +58479,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>713.458419423437</v>
+        <v>800.7969567369868</v>
       </c>
       <c r="AB14" t="n">
-        <v>976.1852850191784</v>
+        <v>1095.685724875905</v>
       </c>
       <c r="AC14" t="n">
-        <v>883.0195315015998</v>
+        <v>991.115017098321</v>
       </c>
       <c r="AD14" t="n">
-        <v>713458.419423437</v>
+        <v>800796.9567369868</v>
       </c>
       <c r="AE14" t="n">
-        <v>976185.2850191784</v>
+        <v>1095685.724875905</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.310859581037767e-06</v>
+        <v>2.341754977245672e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.65895061728395</v>
       </c>
       <c r="AH14" t="n">
-        <v>883019.5315015998</v>
+        <v>991115.017098321</v>
       </c>
     </row>
   </sheetData>
